--- a/2HL_Neurons_Network_Results_KFold_CV.xlsx
+++ b/2HL_Neurons_Network_Results_KFold_CV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,22 +491,22 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3041992348833462</v>
+        <v>0.309871590691737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06090267777514492</v>
+        <v>0.03771650778476499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2338850176243741</v>
+        <v>0.234858020814168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06340343700106564</v>
+        <v>0.02957579570160309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9833077317542432</v>
+        <v>0.9833822040232896</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008113004071589523</v>
+        <v>0.004368181435187165</v>
       </c>
     </row>
     <row r="3">
@@ -517,25 +517,25 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.321265171407746</v>
+        <v>0.2815096152395038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06870250320933699</v>
+        <v>0.03629632522444316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2384827350216192</v>
+        <v>0.2102022777192064</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05113750588941259</v>
+        <v>0.03230693000869579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9824816442225615</v>
+        <v>0.9865458735093767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005732866403708865</v>
+        <v>0.002951102858161244</v>
       </c>
     </row>
     <row r="4">
@@ -546,25 +546,25 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3184223323778719</v>
+        <v>0.3380689970371152</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04835808907112398</v>
+        <v>0.05833382342456883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2429623908614687</v>
+        <v>0.2457942874193454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06275146111077111</v>
+        <v>0.04521385779121842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9822637278378824</v>
+        <v>0.9804567241826941</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006318266710682757</v>
+        <v>0.005303268880745642</v>
       </c>
     </row>
     <row r="5">
@@ -575,25 +575,25 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3231845267079167</v>
+        <v>0.3271619124379324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05235131473194653</v>
+        <v>0.06437081745107667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2543830322083632</v>
+        <v>0.2486401383200239</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05451725428328596</v>
+        <v>0.05697344544309378</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9809009830214134</v>
+        <v>0.9805247681710808</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00922476977179946</v>
+        <v>0.009327158796216267</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +604,25 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2844505306214667</v>
+        <v>0.3559411628760606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04208777548111438</v>
+        <v>0.08177357716558915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2086118781138252</v>
+        <v>0.2833221018253854</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04246302421414033</v>
+        <v>0.08284227480316084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9864095424534337</v>
+        <v>0.9763157689665996</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00265108335489139</v>
+        <v>0.01201300289594015</v>
       </c>
     </row>
     <row r="7">
@@ -633,25 +633,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0.339764233644713</v>
+        <v>0.3264519998842443</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06967088605026238</v>
+        <v>0.0723312189351103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2803874840209616</v>
+        <v>0.2534813422688494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07619517127054656</v>
+        <v>0.0593113829620458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9791645811392529</v>
+        <v>0.981935069468206</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01038823344983813</v>
+        <v>0.00612263210760469</v>
       </c>
     </row>
     <row r="8">
@@ -662,25 +662,25 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3075087290085919</v>
+        <v>0.3117625603802122</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07121068429080059</v>
+        <v>0.08370618271648625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2379900711319002</v>
+        <v>0.2337599450613077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07725732684342544</v>
+        <v>0.07380598030181981</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9831486868127133</v>
+        <v>0.9810094606398019</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007949715664983733</v>
+        <v>0.01459851460673021</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3165421690033955</v>
+        <v>0.2680402298399466</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05139261252421078</v>
+        <v>0.03014287263185508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2371317675628071</v>
+        <v>0.2076516770589828</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05321932009798971</v>
+        <v>0.02200558335688331</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9821718583608241</v>
+        <v>0.9878336007452881</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007669812930904992</v>
+        <v>0.002126281095674274</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3011122770887725</v>
+        <v>0.3509940136733979</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05952971916476551</v>
+        <v>0.0495081701621165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2220560536486279</v>
+        <v>0.2691090884121847</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06037976249716068</v>
+        <v>0.04486998308644492</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9842332766131781</v>
+        <v>0.9787536919858768</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005834678185440373</v>
+        <v>0.00615510249234563</v>
       </c>
     </row>
     <row r="11">
@@ -746,28 +746,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3353444926373441</v>
+        <v>0.2814431388926003</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09709344338155589</v>
+        <v>0.03934699338650078</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2602921278951077</v>
+        <v>0.2077887941965416</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09727157805608268</v>
+        <v>0.04698444191463042</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9774333327902115</v>
+        <v>0.9860076218894243</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01858639462204533</v>
+        <v>0.005164842471951062</v>
       </c>
     </row>
     <row r="12">
@@ -775,28 +775,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>0.291062189379091</v>
+        <v>0.3769525839885746</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04432763398876556</v>
+        <v>0.094519200171369</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2199539354872541</v>
+        <v>0.3048805347388332</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0436077143237723</v>
+        <v>0.08904700108179037</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9857797990360982</v>
+        <v>0.9746095395458084</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002793537283661394</v>
+        <v>0.01325823216094798</v>
       </c>
     </row>
     <row r="13">
@@ -804,28 +804,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2827968921506313</v>
+        <v>0.2935737318594314</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03912637557632237</v>
+        <v>0.02891728418775689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2003104016196183</v>
+        <v>0.2117077767895794</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02935822459000079</v>
+        <v>0.01797548715500372</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9865273449711325</v>
+        <v>0.9854176466417839</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002567836342705584</v>
+        <v>0.002314392503195705</v>
       </c>
     </row>
     <row r="14">
@@ -833,28 +833,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2808103304761101</v>
+        <v>0.2685694283160446</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04669800757782604</v>
+        <v>0.0214457447672677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2131871527407715</v>
+        <v>0.1936583478664949</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03833779005350423</v>
+        <v>0.02859362569274856</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9863501838562954</v>
+        <v>0.9874848780688789</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004524270990573415</v>
+        <v>0.003518015355837137</v>
       </c>
     </row>
     <row r="15">
@@ -862,28 +862,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3094022121703324</v>
+        <v>0.3434429931779165</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03669018816393124</v>
+        <v>0.06649168852832356</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2416260538447778</v>
+        <v>0.2679287765807528</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03727707342331021</v>
+        <v>0.0752744809469906</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9833102969444031</v>
+        <v>0.9796766080362701</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005317186977385422</v>
+        <v>0.007024482336514005</v>
       </c>
     </row>
     <row r="16">
@@ -891,28 +891,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3106747829089842</v>
+        <v>0.2881291221413761</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0774727963725953</v>
+        <v>0.0231347248548613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2413113765232462</v>
+        <v>0.211687795022763</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07519915817631805</v>
+        <v>0.02078897330035213</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9834041645192988</v>
+        <v>0.9859573473264998</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007175012254574981</v>
+        <v>0.001836463643877776</v>
       </c>
     </row>
     <row r="17">
@@ -920,28 +920,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3297906544539873</v>
+        <v>0.3500214260676447</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0750426819819385</v>
+        <v>0.06554658569990016</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2566967854150287</v>
+        <v>0.2738685680864861</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0685273556236819</v>
+        <v>0.05685678891647242</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9808590841489971</v>
+        <v>0.9784702504799021</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008267461111628963</v>
+        <v>0.007933492263532389</v>
       </c>
     </row>
     <row r="18">
@@ -949,28 +949,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2770293159421227</v>
+        <v>0.309272568633251</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02053804668817806</v>
+        <v>0.0251544053168797</v>
       </c>
       <c r="F18" t="n">
-        <v>0.20571792998317</v>
+        <v>0.2301242445154976</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02109075840111195</v>
+        <v>0.03040148554192253</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9867319096489002</v>
+        <v>0.9836476109257312</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003618238980048197</v>
+        <v>0.003444390619161406</v>
       </c>
     </row>
     <row r="19">
@@ -978,28 +978,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
         <v>40</v>
       </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
       <c r="D19" t="n">
-        <v>0.297429381640738</v>
+        <v>0.298014169825196</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02916567599604908</v>
+        <v>0.04312301642328291</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2202535652652959</v>
+        <v>0.2319577802261375</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04064188809286654</v>
+        <v>0.05166615124096994</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9848947096148544</v>
+        <v>0.9849740944158212</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003240716231962003</v>
+        <v>0.003221307595200369</v>
       </c>
     </row>
     <row r="20">
@@ -1007,28 +1007,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>0.277591947613894</v>
+        <v>0.2938282886382834</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04289762132566322</v>
+        <v>0.0604032249793382</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2016556078385423</v>
+        <v>0.2305175570733689</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04360315359330871</v>
+        <v>0.06832820810079555</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9869974946810384</v>
+        <v>0.9847385443524223</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002955424197029284</v>
+        <v>0.006362058997246216</v>
       </c>
     </row>
     <row r="21">
@@ -1036,28 +1036,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3082556840453344</v>
+        <v>0.3801155662589993</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02662226689915202</v>
+        <v>0.1310988623168164</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2411956439140433</v>
+        <v>0.3047515814142848</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03419202789912147</v>
+        <v>0.1264018329633742</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9840091380566566</v>
+        <v>0.97327124134831</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001634685317356621</v>
+        <v>0.01807715207868597</v>
       </c>
     </row>
     <row r="22">
@@ -1065,28 +1065,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0.279784181806236</v>
+        <v>0.3080164016269837</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06304711150055876</v>
+        <v>0.03261904926193879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2123660479733058</v>
+        <v>0.2438160196474508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07629921119831787</v>
+        <v>0.03777079562102718</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9863359528632841</v>
+        <v>0.9837025003188422</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006002899339827002</v>
+        <v>0.0036524436074034</v>
       </c>
     </row>
     <row r="23">
@@ -1094,28 +1094,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3430921708771211</v>
+        <v>0.3143160163273694</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08266766357726049</v>
+        <v>0.1075772266523795</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2658561388229771</v>
+        <v>0.2371514006954255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08072872376684954</v>
+        <v>0.1015589829564857</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9795364425446044</v>
+        <v>0.9819640585867331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009101096744452119</v>
+        <v>0.0126867489697081</v>
       </c>
     </row>
     <row r="24">
@@ -1123,28 +1123,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2877309480502147</v>
+        <v>0.2926004307346073</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0511652111374638</v>
+        <v>0.03904194304758243</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2150256762144538</v>
+        <v>0.2081222413255757</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04724688139758317</v>
+        <v>0.0261685303803517</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9858549189537367</v>
+        <v>0.9854574136757629</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004175731774849313</v>
+        <v>0.003366450320476459</v>
       </c>
     </row>
     <row r="25">
@@ -1152,28 +1152,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3337624628657535</v>
+        <v>0.2794880651637075</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05063564200779656</v>
+        <v>0.0328877928622515</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2647373541220468</v>
+        <v>0.1998403606390204</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0482080600890496</v>
+        <v>0.02456466192479793</v>
       </c>
       <c r="H25" t="n">
-        <v>0.980611509458137</v>
+        <v>0.9866138699662255</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005807495442226437</v>
+        <v>0.003480964754746658</v>
       </c>
     </row>
     <row r="26">
@@ -1181,28 +1181,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3690841263792988</v>
+        <v>0.3256437948539204</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1202895135049338</v>
+        <v>0.06000224440827667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2948432841521574</v>
+        <v>0.2579659239316597</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1147232570965166</v>
+        <v>0.07428223323788474</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9754814072206545</v>
+        <v>0.9804260519233668</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01593988883533443</v>
+        <v>0.01129169980843939</v>
       </c>
     </row>
     <row r="27">
@@ -1210,28 +1210,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3503478872370928</v>
+        <v>0.3459207068778559</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1512786505532898</v>
+        <v>0.08390061683810252</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2755970885649985</v>
+        <v>0.2661617874777148</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1669236536540634</v>
+        <v>0.08834954380843421</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9722120781818386</v>
+        <v>0.9793956859924016</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03082231166814204</v>
+        <v>0.008555469408538954</v>
       </c>
     </row>
     <row r="28">
@@ -1239,28 +1239,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3333672913927689</v>
+        <v>0.2765439988443067</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05082411094603104</v>
+        <v>0.04305240110349282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2486609787277246</v>
+        <v>0.1992795394573822</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04170710707977038</v>
+        <v>0.02318243279444447</v>
       </c>
       <c r="H28" t="n">
-        <v>0.980352658127132</v>
+        <v>0.9869391921814706</v>
       </c>
       <c r="I28" t="n">
-        <v>0.007105509537128144</v>
+        <v>0.00368590169124131</v>
       </c>
     </row>
     <row r="29">
@@ -1268,28 +1268,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2605633665348434</v>
+        <v>0.3019736931523854</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01857241560392269</v>
+        <v>0.03726795495769059</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1861156155482679</v>
+        <v>0.2224036149455749</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02248996142658614</v>
+        <v>0.03405389346307162</v>
       </c>
       <c r="H29" t="n">
-        <v>0.988319507402901</v>
+        <v>0.9841497646697011</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00266855979407378</v>
+        <v>0.004657827084242005</v>
       </c>
     </row>
     <row r="30">
@@ -1297,28 +1297,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3081385514292772</v>
+        <v>0.2874162514234823</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06064331349174509</v>
+        <v>0.04728239064104217</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2288063079403067</v>
+        <v>0.2174475973556482</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05231354132966996</v>
+        <v>0.05362719800563458</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9835235277242363</v>
+        <v>0.9858816741835176</v>
       </c>
       <c r="I30" t="n">
-        <v>0.005693891221037507</v>
+        <v>0.003865298836994939</v>
       </c>
     </row>
     <row r="31">
@@ -1326,28 +1326,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2822300882023882</v>
+        <v>0.2933348381599495</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02038908927655968</v>
+        <v>0.03675052461596082</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2116364038290758</v>
+        <v>0.2290768714546116</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03111934536569316</v>
+        <v>0.04091669847080216</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9864005975467443</v>
+        <v>0.9855459611150097</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002516987886840697</v>
+        <v>0.002244484876526969</v>
       </c>
     </row>
     <row r="32">
@@ -1355,28 +1355,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0.276254969434363</v>
+        <v>0.3219854269298518</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02642629530659095</v>
+        <v>0.05226268397432807</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2076426068980178</v>
+        <v>0.2592258600170584</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03264757885391116</v>
+        <v>0.05814468151583886</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9869031900264804</v>
+        <v>0.9822633714406465</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002987064118795341</v>
+        <v>0.004778893715221869</v>
       </c>
     </row>
     <row r="33">
@@ -1384,28 +1384,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2768783457698002</v>
+        <v>0.3188770175650645</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0651667454756356</v>
+        <v>0.06564256365065332</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1973433453363125</v>
+        <v>0.2522509084724951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04931196989891772</v>
+        <v>0.07473005941262639</v>
       </c>
       <c r="H33" t="n">
-        <v>0.986420120081444</v>
+        <v>0.9813743539644632</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006301305457123135</v>
+        <v>0.01003230105953714</v>
       </c>
     </row>
     <row r="34">
@@ -1413,28 +1413,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2994864173385188</v>
+        <v>0.3717081291241862</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04514215931431242</v>
+        <v>0.1531882172066628</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2380439238930058</v>
+        <v>0.2942523275574873</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05127156497770506</v>
+        <v>0.1474702706372972</v>
       </c>
       <c r="H34" t="n">
-        <v>0.983798497815852</v>
+        <v>0.9740929299653661</v>
       </c>
       <c r="I34" t="n">
-        <v>0.007932307928566945</v>
+        <v>0.02090204752819197</v>
       </c>
     </row>
     <row r="35">
@@ -1442,28 +1442,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3130292576012231</v>
+        <v>0.2803329029551066</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03985342454474793</v>
+        <v>0.03607923694994448</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2428551622397771</v>
+        <v>0.2106605964999483</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03845291877124505</v>
+        <v>0.04779288057851533</v>
       </c>
       <c r="H35" t="n">
-        <v>0.983500430685045</v>
+        <v>0.9862017776004729</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002899192505131577</v>
+        <v>0.004655200470051467</v>
       </c>
     </row>
     <row r="36">
@@ -1471,28 +1471,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" t="n">
         <v>60</v>
       </c>
-      <c r="C36" t="n">
-        <v>80</v>
-      </c>
       <c r="D36" t="n">
-        <v>0.3033689372335922</v>
+        <v>0.2826143458558911</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06406398623667722</v>
+        <v>0.03112943746867891</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2259573168329057</v>
+        <v>0.2145036095556237</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05882546595037619</v>
+        <v>0.03571286528564152</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9842759670892403</v>
+        <v>0.9862037851728438</v>
       </c>
       <c r="I36" t="n">
-        <v>0.005366451135130806</v>
+        <v>0.003535018353626404</v>
       </c>
     </row>
     <row r="37">
@@ -1500,28 +1500,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313499550969283</v>
+        <v>0.3068263549615721</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09120135702990961</v>
+        <v>0.04315651954838576</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2451874578837684</v>
+        <v>0.2330331350458489</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1027411550141803</v>
+        <v>0.04324959531173575</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9813180953560583</v>
+        <v>0.9840956263083458</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01303179740400229</v>
+        <v>0.003312036098780198</v>
       </c>
     </row>
     <row r="38">
@@ -1529,28 +1529,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" t="n">
         <v>70</v>
       </c>
-      <c r="C38" t="n">
-        <v>30</v>
-      </c>
       <c r="D38" t="n">
-        <v>0.3069532899071554</v>
+        <v>0.2875935798367898</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05069527924193427</v>
+        <v>0.03874109370330652</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2292392847729519</v>
+        <v>0.2144456253855622</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03852239688882505</v>
+        <v>0.05151812405970714</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9839837962196057</v>
+        <v>0.9850978437353947</v>
       </c>
       <c r="I38" t="n">
-        <v>0.004179745195149921</v>
+        <v>0.006390323279947449</v>
       </c>
     </row>
     <row r="39">
@@ -1558,28 +1558,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3450799681658838</v>
+        <v>0.3041479155407524</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08198562583468358</v>
+        <v>0.06589687262439473</v>
       </c>
       <c r="F39" t="n">
-        <v>0.264685602180484</v>
+        <v>0.2252339378560543</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0877704234296199</v>
+        <v>0.06487906594236</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9776476671298846</v>
+        <v>0.983599509249338</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01365089109069309</v>
+        <v>0.007037623164148249</v>
       </c>
     </row>
     <row r="40">
@@ -1587,28 +1587,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3856975359337125</v>
+        <v>0.275920820117828</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1185837561570387</v>
+        <v>0.02683285113892015</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3225062724889741</v>
+        <v>0.1940447310988937</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1310001185314269</v>
+        <v>0.0272495148647072</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9720496808816828</v>
+        <v>0.9871008131855504</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0173614223331058</v>
+        <v>0.002117721704496354</v>
       </c>
     </row>
     <row r="41">
@@ -1616,28 +1616,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2944631039947824</v>
+        <v>0.2798285510655149</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04935033392268187</v>
+        <v>0.02347767423025377</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2251408364940518</v>
+        <v>0.2091377374551107</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05733175653580446</v>
+        <v>0.02015347535263486</v>
       </c>
       <c r="H41" t="n">
-        <v>0.98542340609423</v>
+        <v>0.9868750291838472</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003420825754706629</v>
+        <v>0.0007419311500404387</v>
       </c>
     </row>
     <row r="42">
@@ -1645,28 +1645,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2815269321065315</v>
+        <v>0.338660078966681</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04312494499204256</v>
+        <v>0.05980335595062757</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2081692474570586</v>
+        <v>0.2453949323121195</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04542313972873101</v>
+        <v>0.04346344998901722</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9866587514023072</v>
+        <v>0.9804881453708898</v>
       </c>
       <c r="I42" t="n">
-        <v>0.002913449223835836</v>
+        <v>0.005596675480638296</v>
       </c>
     </row>
     <row r="43">
@@ -1674,28 +1674,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C43" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2800763763475865</v>
+        <v>0.3103110586549668</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05001526312252631</v>
+        <v>0.01960918764197273</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1944549448130388</v>
+        <v>0.230427186346605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03311149227265221</v>
+        <v>0.01639008607618668</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9866094731663889</v>
+        <v>0.9834707147947593</v>
       </c>
       <c r="I43" t="n">
-        <v>0.004173650721895038</v>
+        <v>0.003458840057691398</v>
       </c>
     </row>
     <row r="44">
@@ -1703,28 +1703,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3571545816231448</v>
+        <v>0.313519718028446</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1215961109582988</v>
+        <v>0.06439367570565437</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2913375789413684</v>
+        <v>0.2483684084632476</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1175623301823624</v>
+        <v>0.06195808368552928</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9765666675076481</v>
+        <v>0.9833374514839299</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01446254457959716</v>
+        <v>0.00514841444797035</v>
       </c>
     </row>
     <row r="45">
@@ -1732,28 +1732,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3107877209804623</v>
+        <v>0.3384732545917021</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06466563459472756</v>
+        <v>0.1041707174679318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2294010114983197</v>
+        <v>0.2652704743606422</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05891684855086917</v>
+        <v>0.1047078932680216</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9833272550389649</v>
+        <v>0.9792904547131489</v>
       </c>
       <c r="I45" t="n">
-        <v>0.006442196118992375</v>
+        <v>0.01230064259106882</v>
       </c>
     </row>
     <row r="46">
@@ -1761,28 +1761,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3944792801706514</v>
+        <v>0.3405837412214744</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1557599399800047</v>
+        <v>0.09545885704279011</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3270380726434191</v>
+        <v>0.2658386711815476</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1591227666935134</v>
+        <v>0.08657554701580532</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9688675887572803</v>
+        <v>0.9792351185953754</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02774364357361688</v>
+        <v>0.01107601350090714</v>
       </c>
     </row>
     <row r="47">
@@ -1790,28 +1790,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C47" t="n">
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3015292209519796</v>
+        <v>0.2559643325001692</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0235484036698844</v>
+        <v>0.01708489492823351</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2386600431061073</v>
+        <v>0.1784679807837662</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03362948959083593</v>
+        <v>0.01218014103251962</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9844676780672812</v>
+        <v>0.9889889351498595</v>
       </c>
       <c r="I47" t="n">
-        <v>0.003129619778516576</v>
+        <v>0.0006056367102239072</v>
       </c>
     </row>
     <row r="48">
@@ -1819,28 +1819,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3002281007132622</v>
+        <v>0.3115972378998579</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02701756565991126</v>
+        <v>0.07477122322429229</v>
       </c>
       <c r="F48" t="n">
-        <v>0.225031431620654</v>
+        <v>0.2420726725288523</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04187466621970154</v>
+        <v>0.08844258279051498</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9844840896100772</v>
+        <v>0.9832570478319849</v>
       </c>
       <c r="I48" t="n">
-        <v>0.003622942726456004</v>
+        <v>0.007160452729348761</v>
       </c>
     </row>
     <row r="49">
@@ -1848,28 +1848,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C49" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>0.381904904555309</v>
+        <v>0.329958832961439</v>
       </c>
       <c r="E49" t="n">
-        <v>0.05981486607613092</v>
+        <v>0.1438863353419709</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3232204870918978</v>
+        <v>0.2660196088096861</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07187230363135844</v>
+        <v>0.1475790140358998</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9737668358761058</v>
+        <v>0.9791117113949246</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0107944257863175</v>
+        <v>0.01872284882765156</v>
       </c>
     </row>
     <row r="50">
@@ -1877,28 +1877,3508 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
+        <v>35</v>
+      </c>
+      <c r="C50" t="n">
+        <v>65</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2979852519731885</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.06305256333147256</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2259958863679212</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.06853317191150383</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9847734001517698</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0056867776558025</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>35</v>
+      </c>
+      <c r="C51" t="n">
+        <v>70</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2889666641338633</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.04340609801374547</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2140955254257685</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04751738543157696</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9860396729047871</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.002425703714982397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>35</v>
+      </c>
+      <c r="C52" t="n">
+        <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2824215127288342</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.05569333106088356</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2160375576267615</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05359343643167098</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.985826390148784</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.006515004500354144</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>35</v>
+      </c>
+      <c r="C53" t="n">
         <v>80</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D53" t="n">
+        <v>0.3031674615512758</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.06355972336221059</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2236883413443493</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.05654315670829172</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9840527434426015</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.006428691657690149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.364108670014568</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.033252289901264</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2775537162899511</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02920383057655836</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9776088529230391</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.003037170871834152</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>40</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.340515761294254</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.09017620961325064</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2560030583121553</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.06356055509155679</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.979426476224261</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01015781748237729</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>40</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3369736243611594</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1199468723264724</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.241628156167955</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.09596672759698867</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9785721164959138</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01435556734972693</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>40</v>
+      </c>
+      <c r="C57" t="n">
+        <v>35</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.3437516817348644</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1196758345926719</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2708661741784198</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.1257140393388793</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9784031092414059</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01513782205756347</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+      <c r="C58" t="n">
+        <v>40</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3657410375217839</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.116248446213987</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2821344358310248</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1267731990128128</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9747528839269014</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01794346190882967</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>40</v>
+      </c>
+      <c r="C59" t="n">
+        <v>45</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.2556814633238239</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.02995663182201646</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1800569741566611</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.02179377127501276</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9890001587510844</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.001801058504870942</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3415676755862713</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1090381317431589</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2591188417997051</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.1010232385911255</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9790578336655203</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01285519643418064</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>40</v>
+      </c>
+      <c r="C61" t="n">
+        <v>55</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3080290429089271</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.02674223973695275</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.227572771674511</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02048477614795967</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9840005289960722</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.002003895596508306</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.3206948322271723</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.04640342496518847</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.2461431895867912</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04983126695209086</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9824518727204741</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.004170991330475648</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>40</v>
+      </c>
+      <c r="C63" t="n">
+        <v>65</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3378581194034333</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.04701573837853336</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.2742175548003402</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.06070797116781623</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9805006177156299</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.004903767955603716</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>40</v>
+      </c>
+      <c r="C64" t="n">
+        <v>70</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3102817076782952</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.02816527492013962</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.2387982965047742</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03023955739138727</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9837375007903585</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.002333053189836305</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40</v>
+      </c>
+      <c r="C65" t="n">
+        <v>75</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3528425547739416</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1172444887874236</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2930430138925231</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1242426429251161</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9767251298425897</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01585507892160243</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>40</v>
+      </c>
+      <c r="C66" t="n">
         <v>80</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.3473751349904556</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.03017163273988768</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.2764578472627531</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.02939493030862496</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9793435625573519</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.004160806022913852</v>
+      <c r="D66" t="n">
+        <v>0.2862136034953767</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.03515659135889643</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.212763851433208</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03262779631775668</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9855892369042912</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.005103377696399067</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>45</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.3565618331364289</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0495114384653884</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2937218337252947</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0659878382299125</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9774211160026548</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.008044690547744935</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>45</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3391961453327734</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.07322680223323837</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2781546733730641</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0802251366296234</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9784087088133433</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01184954237779063</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>45</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2938541152676148</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.04644856487621051</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.2141041195021695</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03665339414892741</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9854144665008064</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.003407960077288059</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>45</v>
+      </c>
+      <c r="C70" t="n">
+        <v>35</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.2743013548919576</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.02677387978890826</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1977469777130431</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.02298524113076669</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9873462063173781</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00145537536352801</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>45</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3391260020407266</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.04432872472021231</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.2539668215157926</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02843581630954362</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9803734136887877</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.004294952298780215</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>45</v>
+      </c>
+      <c r="C72" t="n">
+        <v>45</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.3487136900428659</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.08826162879720635</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.2793776628480023</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.09725572166439005</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.978188734765715</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.01104444521144497</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>45</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.3005389471587196</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.03173700615742993</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.2180988019698349</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03288993532024685</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9846337102759597</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.003094639950631768</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>45</v>
+      </c>
+      <c r="C74" t="n">
+        <v>55</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.291486069369472</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.02856023116895424</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2183720879761691</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.04353771026208909</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9851655216182662</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.004256649585517048</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>45</v>
+      </c>
+      <c r="C75" t="n">
+        <v>60</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2868627872758736</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.03159358775383472</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2135917729593419</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.04426019924584234</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9855757960518208</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.004895539276555038</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>45</v>
+      </c>
+      <c r="C76" t="n">
+        <v>65</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.3125910240451159</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.03787832434136832</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.2330976964742584</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.05101877714158176</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9829526141056064</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.005155303817311352</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>45</v>
+      </c>
+      <c r="C77" t="n">
+        <v>70</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.361144494626552</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.09376815946982778</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.2708778724760981</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.09837463630779644</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9745084090857429</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.01827338004625396</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45</v>
+      </c>
+      <c r="C78" t="n">
+        <v>75</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.273283795283474</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.02406338037575314</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.209360403796386</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.02239390166364115</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9872156322306106</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.002719627013817645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>45</v>
+      </c>
+      <c r="C79" t="n">
+        <v>80</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3012871151679148</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.06391089758401165</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.2365176706459249</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.06264640988313416</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9844903969782186</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.005523464753100632</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>50</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.3031245738459806</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.04705492621908064</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.2402592012168761</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.05816989350893756</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9841842839811932</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.004599062626757953</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>50</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.3631164076555199</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.03100430824665067</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.2865920888398169</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03402847127550167</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9773518702670078</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.005075308023527648</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>50</v>
+      </c>
+      <c r="C82" t="n">
+        <v>30</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.3452055577275554</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.1149947207035195</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.2728006536255544</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.1229141571027617</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9789213711313339</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0128928568506637</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50</v>
+      </c>
+      <c r="C83" t="n">
+        <v>35</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3175740338820208</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.06971036503526033</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.2481091269900326</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0696166940708194</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9817949292636963</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.008504042543243079</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>50</v>
+      </c>
+      <c r="C84" t="n">
+        <v>40</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3286413845300363</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.06761836382563187</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.2636503939076067</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0744956114947154</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9815424313273526</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.006174874891329936</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>50</v>
+      </c>
+      <c r="C85" t="n">
+        <v>45</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.3165551126114444</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.08197197155689354</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.2330106047364079</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.06969138836043545</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9820628565869065</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.009017984408040133</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>50</v>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.2548663665736538</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.01858851433322015</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1814469328207838</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01839657936278869</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9890419202679375</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.001281855828766457</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>50</v>
+      </c>
+      <c r="C87" t="n">
+        <v>55</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.2648705902165558</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.02437413372634691</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1891327240999586</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01480990492083603</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9880495129563973</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.002280613223904861</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>50</v>
+      </c>
+      <c r="C88" t="n">
+        <v>60</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.3537334328206759</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.07697938206508843</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.2855253977039925</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.07400513618661597</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9784356070946727</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.008133674925994183</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>50</v>
+      </c>
+      <c r="C89" t="n">
+        <v>65</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3787277387620269</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.07796779310295283</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.2891830826036361</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.06505429538755132</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9748163145846338</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.009768494323941973</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" t="n">
+        <v>70</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3043319571917955</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.05990009737421114</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.232532814196537</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05779106570398338</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9835675811079925</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.006855638242110378</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>50</v>
+      </c>
+      <c r="C91" t="n">
+        <v>75</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.3097766435886208</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03845652830632002</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.2319288721456776</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03750903211428297</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9831825414741026</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.005799907242584544</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>50</v>
+      </c>
+      <c r="C92" t="n">
+        <v>80</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.3432868056783117</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1007818531644751</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.2680414858856727</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.09655611400003181</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9795184834676409</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0105295564266944</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>55</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2865824835464489</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.03370446594318125</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.2088998449006597</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03941978366322216</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.985613274318337</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.004867960280368746</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>55</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.3552426663809845</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.08306195686747711</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2759824143793645</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0878490765521649</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9770201528433503</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01143745318859203</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>55</v>
+      </c>
+      <c r="C95" t="n">
+        <v>30</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3411290301983101</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.07199442646539135</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.2712691105684367</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.06419969262364342</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9795804644983612</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.009117662375551627</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>55</v>
+      </c>
+      <c r="C96" t="n">
+        <v>35</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.30985125178275</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.03324903822885537</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.231436812114148</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03277539672018075</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9836687875516752</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.003559342402988269</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>55</v>
+      </c>
+      <c r="C97" t="n">
+        <v>40</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.4514785607170246</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.1309597214690727</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.3851287199768382</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.139438258203698</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9607348903248386</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.02697688882380836</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>55</v>
+      </c>
+      <c r="C98" t="n">
+        <v>45</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.3160001206687921</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.07270793956511297</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2312503598926463</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.07375328765892256</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9818640330040674</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.009057722630750139</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>50</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.3129879402670568</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.09321342086949022</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.2405741359286689</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.07924374323722468</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9823920131158503</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.01036431462430574</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>55</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.3580433521524501</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.05989568901065617</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.2814470862181356</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.06923377952093321</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.97795765019507</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.006703339541172861</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>55</v>
+      </c>
+      <c r="C101" t="n">
+        <v>60</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.2975357629410117</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.05580042810407961</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2212127469957721</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05120373410406312</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9850859206696871</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.003996365584046081</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>55</v>
+      </c>
+      <c r="C102" t="n">
+        <v>65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.2959199422590116</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.05469939639359786</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.219558836902653</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.04302937380359573</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9850401257633065</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.00480977474936545</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>55</v>
+      </c>
+      <c r="C103" t="n">
+        <v>70</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.3071687439601061</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.05506701666447176</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.2358078772656319</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.05908281943832881</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.983387060980322</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.006422559917455089</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>55</v>
+      </c>
+      <c r="C104" t="n">
+        <v>75</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2823023437284993</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.03341118269181629</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.2046477528473847</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.02778335061499158</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9864428655537989</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.002812827868148421</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>55</v>
+      </c>
+      <c r="C105" t="n">
+        <v>80</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.3283639498225772</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.03610638020967623</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2663526596546119</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0526884025168089</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9811214068273735</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.005810965050787198</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>60</v>
+      </c>
+      <c r="C106" t="n">
+        <v>20</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.3285373685930714</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.07389107459922846</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.2570367011125769</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.07970243450062736</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9801270050865911</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.01068481887044504</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>60</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.3571033727050768</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.05866730663092623</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.2848693962830222</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.06672588008983522</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9781975853342706</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.00577042669672536</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>60</v>
+      </c>
+      <c r="C108" t="n">
+        <v>30</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.3069020306267086</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.04287768371684813</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.2341380685782092</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.05177357442830038</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9838477821219076</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.004336320371422122</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>60</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.3236515490513697</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0646973752819418</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2466421007163946</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.05518152624333858</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9820950673083958</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.006259415872418832</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>60</v>
+      </c>
+      <c r="C110" t="n">
+        <v>40</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.339211055086465</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.06603285779146918</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2613619549192092</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.07373749896546218</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9791359786260939</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.01028570726902524</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>60</v>
+      </c>
+      <c r="C111" t="n">
+        <v>45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3104951520357156</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.07656973306989759</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.2363970102192044</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.07739555807426166</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.982387529355061</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.009640198324425801</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>60</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.3624967803383798</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.1578287965772217</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.2935681265111606</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1639558779471431</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9720211202891079</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.02713910376387868</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>60</v>
+      </c>
+      <c r="C113" t="n">
+        <v>55</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.3474364366969446</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.09254444021421818</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.266584406438756</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.06731430484849688</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9792604835094039</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.009404108936055392</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>60</v>
+      </c>
+      <c r="C114" t="n">
+        <v>60</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.3317474449423609</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.07304689642436736</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.2676096281199906</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.08490145600999383</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9794925307780759</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.01262330445124755</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>60</v>
+      </c>
+      <c r="C115" t="n">
+        <v>65</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.3080772287124259</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.06386325209766432</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.2423969658541599</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.06277222414562296</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.983580220980633</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.006186977146010988</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>60</v>
+      </c>
+      <c r="C116" t="n">
+        <v>70</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.2705786318458884</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.03921067193351924</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.2006877331836545</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.04098529213410364</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9875165364038517</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.003152745254972695</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>60</v>
+      </c>
+      <c r="C117" t="n">
+        <v>75</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.3356345190165008</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.08970391093959167</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.2554830003028813</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.07882699245367866</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.979389240523678</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.01037073284631131</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>60</v>
+      </c>
+      <c r="C118" t="n">
+        <v>80</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.3086364145198666</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.05177031106828141</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.242050889160759</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.05006078691423688</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9839150916745621</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.004145860356217672</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.2546058345248491</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.02135550889172926</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1769844682371705</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.01411034845834861</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9891330780205317</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0006262003345084879</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.3331825300416315</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.03903456720143989</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.2582306910598184</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.04298302457613831</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9809290998296852</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.004855877164136298</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.2797579204314363</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.03021954972841794</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2013604948312395</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.03216738492232641</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9869071590188059</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.001262383094364174</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.3213839579291129</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1107310633695832</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2509834557457101</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.1116710182898196</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9813439148140499</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.01148390714426902</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>40</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2964644456992139</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.02840510077008948</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.2261107041335405</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.03467628796775198</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9847895515709283</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.003815487326888894</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>45</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.3381522035401544</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.07190154688521437</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2437208656155037</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.04656377951217158</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9796323111762639</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.009368119670221933</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.3828487530000196</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.08973244310122078</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.3072732363308757</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.08880038782168366</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9744791944684245</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.0109355973186251</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>65</v>
+      </c>
+      <c r="C126" t="n">
+        <v>55</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.2793388168182945</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.04091550941773058</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.2041798978836816</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.03462840096977453</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9860416120720199</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.005812658392043034</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>65</v>
+      </c>
+      <c r="C127" t="n">
+        <v>60</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.3295608544401817</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.05947575440259966</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.2640055668634959</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.04949318174498284</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.9817719907850245</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.004383959583609319</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>65</v>
+      </c>
+      <c r="C128" t="n">
+        <v>65</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.3746215027405875</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.06592241996022531</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.307309513449269</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.06200713324712961</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.97573231764969</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.00800475689492767</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>65</v>
+      </c>
+      <c r="C129" t="n">
+        <v>70</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.319885947136436</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.06360782811674731</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.2395520746168422</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.04335699936152793</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9812231573069253</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.009272369560620695</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>65</v>
+      </c>
+      <c r="C130" t="n">
+        <v>75</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.327605011181931</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.09284370332559375</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.251221986640199</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.08117542325878081</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9807891704919584</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.01013891256849622</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>65</v>
+      </c>
+      <c r="C131" t="n">
+        <v>80</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.2800499942272344</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.03823858278454276</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2122686884166374</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.03437651933693366</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9864016899555</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.00400151952794412</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>70</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.332058611312486</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.06612810270677238</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.2538287996748408</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0687357898234969</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9810396836165213</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.006377312647746142</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>70</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.2984642000527086</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.02357153106734359</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.2330524183670726</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.03232536342886048</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9849146933001954</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.002120001339584167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>70</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.303943603457505</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.06855147419561783</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.2340039536479982</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.06798098981879033</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.9841835881760662</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.00626198250057586</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>70</v>
+      </c>
+      <c r="C135" t="n">
+        <v>35</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.3361802170123897</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.06956962266111731</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.2760843799384012</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.07447226216443313</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.9800969009585812</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.007814642124440973</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>70</v>
+      </c>
+      <c r="C136" t="n">
+        <v>40</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3500158739710006</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.09081492491870373</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.2693241699515888</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0882264952547511</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.9764182376525614</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.01691092889356162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>70</v>
+      </c>
+      <c r="C137" t="n">
+        <v>45</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.3655647325779607</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.07262007524885937</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.2938526996079635</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.07219574072801783</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.9769714083626395</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.00750193348704699</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>70</v>
+      </c>
+      <c r="C138" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.3324287901601564</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.06898775124091633</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.2635546966067595</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.08306128280792567</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.9810726223332049</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.006578594292450619</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>70</v>
+      </c>
+      <c r="C139" t="n">
+        <v>55</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2798315634693582</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.04468470470061696</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.214063457592711</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.05459501565252131</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9867354031517672</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.003348458173133156</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>70</v>
+      </c>
+      <c r="C140" t="n">
+        <v>60</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.328095176146334</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.05473282561331996</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.2461916343713337</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.07207390013974936</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.9816157315360645</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.005470397756283342</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>70</v>
+      </c>
+      <c r="C141" t="n">
+        <v>65</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.3698997318131675</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.05683424679981624</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.3183803089750604</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0616304360819814</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.9766000583735088</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.006291205017439389</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>70</v>
+      </c>
+      <c r="C142" t="n">
+        <v>70</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2679863252748867</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.05775506072805926</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.2031055452399101</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.06069217832912103</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.9876617358565054</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.004787021397796025</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>70</v>
+      </c>
+      <c r="C143" t="n">
+        <v>75</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.2894098280848824</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.03047029812361599</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.2150354943570957</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.03526037035211937</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.9852813746278649</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.004662088741780326</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>70</v>
+      </c>
+      <c r="C144" t="n">
+        <v>80</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.2984189791894748</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.06685411337953452</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.2144338836545005</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0525885251871302</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9847445831102636</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.005703122515912671</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>20</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3254826987483824</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.06987757232055948</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.2358244491300136</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.06028899072126798</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.9816079674298029</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.007502455756949328</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>75</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.2734107692487814</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.04786171036190711</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.2020041674126273</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0460205868067181</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.9873870793669415</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.003290819821313128</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>75</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.3012342991128088</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.04792915997551592</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.2265167110924202</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.04236920641536811</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.9847829053537517</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.003154092666303298</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>75</v>
+      </c>
+      <c r="C148" t="n">
+        <v>35</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.3385706770389012</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.0826878900248938</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.2654577193822069</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.07371928647630631</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.980145894742687</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.008119018160005964</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>40</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.3419243024899789</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.09174920630360645</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.2723398531730686</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.08236892371885363</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.9789279916297206</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.0110277646044867</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>75</v>
+      </c>
+      <c r="C150" t="n">
+        <v>45</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3811360183396476</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1092536872342254</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.30616912365834</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1086195803221461</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.9720072559221263</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.01856653303795367</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>75</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.2681478084366619</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.02352596176633198</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1972657410947463</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.02197470422824076</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.98752803234563</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.003648356823716795</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>75</v>
+      </c>
+      <c r="C152" t="n">
+        <v>55</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.329331491155229</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.06090384384129553</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.2537537205521471</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.06420905458941881</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.9803253953909163</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.009557214511566324</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>75</v>
+      </c>
+      <c r="C153" t="n">
+        <v>60</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.2722293170191871</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.02891462317681799</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.2048104772886001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0323409724178522</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.9872139181225904</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.003252415757746132</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>75</v>
+      </c>
+      <c r="C154" t="n">
+        <v>65</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.3483377563194642</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.1147162082265774</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.2657134805400402</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.09704385697497878</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.9772814271091852</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.01578356554283981</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>75</v>
+      </c>
+      <c r="C155" t="n">
+        <v>70</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.3185353525409657</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0553121442224522</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.2438453093460615</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.05431120088089569</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.9817059624503688</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.0090088494788727</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>75</v>
+      </c>
+      <c r="C156" t="n">
+        <v>75</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.3567258791233538</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.04699813495143548</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.2825123380872383</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.04897361440704289</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.9775077833695253</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.007684225715035005</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>75</v>
+      </c>
+      <c r="C157" t="n">
+        <v>80</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.3285860400869318</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.05711470157201008</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.2498198091030019</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0610122828128138</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.9808861055941362</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.008170822634033069</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>80</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.3066381441956709</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0626344454395306</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.2325887305011971</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.07140931745232394</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.9835756470619665</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.006338683993978791</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>80</v>
+      </c>
+      <c r="C159" t="n">
+        <v>25</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2933600009746338</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.06326180102717013</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2252185784591534</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.072272132749019</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.9847303703436265</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.007589322789807758</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>80</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.2739861408537655</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.02985356116862821</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1958550179808211</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.02162435923109118</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.987300642651147</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.002163903876044748</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>80</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.2703744689653821</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.02203170941127893</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.2008060516458748</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.02951461015166019</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.9873928413550381</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.003338973487550089</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>80</v>
+      </c>
+      <c r="C162" t="n">
+        <v>40</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3067335988005196</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0768019512056035</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2270081311055779</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0715122229362225</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9834625095261128</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.007757829237635335</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>80</v>
+      </c>
+      <c r="C163" t="n">
+        <v>45</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.278942480915996</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.02833590146875954</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1974351787901699</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.02631300957678899</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.9863350459292656</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.004765046609265539</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>80</v>
+      </c>
+      <c r="C164" t="n">
+        <v>50</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2554847341286652</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.03197136068839632</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.1737598670767431</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.02712059105680521</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.9890422855905368</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.001761130068671167</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>80</v>
+      </c>
+      <c r="C165" t="n">
+        <v>55</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.2664275538945384</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.03440659240270818</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1983245400346946</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.03115585074270028</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.9879245713732665</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.002707639698343425</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>80</v>
+      </c>
+      <c r="C166" t="n">
+        <v>60</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3164101647684258</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0635177885374664</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2368244013543106</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.04439469756581039</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.9824695400177191</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.006970797239297793</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>80</v>
+      </c>
+      <c r="C167" t="n">
+        <v>65</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.2892330796572214</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.03358381642469675</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.227055896749321</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.03843201268301958</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.9858976038424652</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.002258920651669492</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>80</v>
+      </c>
+      <c r="C168" t="n">
+        <v>70</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3607296723420548</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.07159853120491545</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.2716101584901987</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.06695475121946334</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.9773104586760505</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.007604722912004142</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>80</v>
+      </c>
+      <c r="C169" t="n">
+        <v>75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.2824903778102975</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.04387266290937267</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2051168189347222</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.04331125709428218</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.9866266670868</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.002624507634081102</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>80</v>
+      </c>
+      <c r="C170" t="n">
+        <v>80</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3005116894976894</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0236970157468939</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2320863889180074</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.04216694926067255</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.9842030302486273</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.004748365840659528</v>
       </c>
     </row>
   </sheetData>

--- a/2HL_Neurons_Network_Results_KFold_CV.xlsx
+++ b/2HL_Neurons_Network_Results_KFold_CV.xlsx
@@ -491,22 +491,22 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309871590691737</v>
+        <v>0.2907095439475552</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03771650778476499</v>
+        <v>0.05962027282735231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.234858020814168</v>
+        <v>0.2168229106568952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02957579570160309</v>
+        <v>0.06309560252117904</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9833822040232896</v>
+        <v>0.9856416817269456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004368181435187165</v>
+        <v>0.004740279544038592</v>
       </c>
     </row>
     <row r="3">
@@ -520,22 +520,22 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2815096152395038</v>
+        <v>0.3131229305225186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03629632522444316</v>
+        <v>0.03838709247805163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2102022777192064</v>
+        <v>0.2276887570518868</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03230693000869579</v>
+        <v>0.03459863580855051</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9865458735093767</v>
+        <v>0.9828011350550527</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002951102858161244</v>
+        <v>0.005749593192310706</v>
       </c>
     </row>
     <row r="4">
@@ -549,22 +549,22 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3380689970371152</v>
+        <v>0.284779350645277</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05833382342456883</v>
+        <v>0.04699220178402221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2457942874193454</v>
+        <v>0.2072597542441035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04521385779121842</v>
+        <v>0.03903862430644275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9804567241826941</v>
+        <v>0.9861151026815673</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005303268880745642</v>
+        <v>0.004166517004879357</v>
       </c>
     </row>
     <row r="5">
@@ -578,22 +578,22 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3271619124379324</v>
+        <v>0.2806180456812951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06437081745107667</v>
+        <v>0.03953881157090391</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2486401383200239</v>
+        <v>0.2145374140883858</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05697344544309378</v>
+        <v>0.04727396972647137</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9805247681710808</v>
+        <v>0.986190475500619</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009327158796216267</v>
+        <v>0.004466551760773375</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
         <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3559411628760606</v>
+        <v>0.312583440212622</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08177357716558915</v>
+        <v>0.0783213148321045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2833221018253854</v>
+        <v>0.2428254605910927</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08284227480316084</v>
+        <v>0.0800603789011638</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9763157689665996</v>
+        <v>0.9829230176369732</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01201300289594015</v>
+        <v>0.008241316186612998</v>
       </c>
     </row>
     <row r="7">
@@ -636,22 +636,22 @@
         <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3264519998842443</v>
+        <v>0.2925806733967185</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0723312189351103</v>
+        <v>0.04248387482687137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2534813422688494</v>
+        <v>0.2126535510397288</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0593113829620458</v>
+        <v>0.03790931181816169</v>
       </c>
       <c r="H7" t="n">
-        <v>0.981935069468206</v>
+        <v>0.9855118241257503</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00612263210760469</v>
+        <v>0.003193750958395778</v>
       </c>
     </row>
     <row r="8">
@@ -665,22 +665,22 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3117625603802122</v>
+        <v>0.2791227963579545</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08370618271648625</v>
+        <v>0.02604477026438736</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2337599450613077</v>
+        <v>0.207201019019215</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07380598030181981</v>
+        <v>0.02858196248965465</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9810094606398019</v>
+        <v>0.9868370826481521</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01459851460673021</v>
+        <v>0.001926388980670566</v>
       </c>
     </row>
     <row r="9">
@@ -694,22 +694,22 @@
         <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2680402298399466</v>
+        <v>0.3370384771958705</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03014287263185508</v>
+        <v>0.06669604599498798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2076516770589828</v>
+        <v>0.2667873650740564</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02200558335688331</v>
+        <v>0.05509260979585093</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9878336007452881</v>
+        <v>0.9806587475083267</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002126281095674274</v>
+        <v>0.006094179289114864</v>
       </c>
     </row>
     <row r="10">
@@ -723,22 +723,22 @@
         <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3509940136733979</v>
+        <v>0.3208403867923916</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0495081701621165</v>
+        <v>0.04992684042364024</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2691090884121847</v>
+        <v>0.2577504158061473</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04486998308644492</v>
+        <v>0.05596031199636416</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9787536919858768</v>
+        <v>0.9823566503823971</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00615510249234563</v>
+        <v>0.004831456277380864</v>
       </c>
     </row>
     <row r="11">
@@ -752,22 +752,22 @@
         <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2814431388926003</v>
+        <v>0.3250287683298168</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03934699338650078</v>
+        <v>0.05864352310238408</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2077887941965416</v>
+        <v>0.2617053983870388</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04698444191463042</v>
+        <v>0.05961580585983848</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9860076218894243</v>
+        <v>0.9814624482426966</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005164842471951062</v>
+        <v>0.00606922821365643</v>
       </c>
     </row>
     <row r="12">
@@ -781,22 +781,22 @@
         <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3769525839885746</v>
+        <v>0.4094766578604445</v>
       </c>
       <c r="E12" t="n">
-        <v>0.094519200171369</v>
+        <v>0.08962828493644766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3048805347388332</v>
+        <v>0.3307961691573038</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08904700108179037</v>
+        <v>0.1038578992536622</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9746095395458084</v>
+        <v>0.9709024211060452</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01325823216094798</v>
+        <v>0.01196304931110487</v>
       </c>
     </row>
     <row r="13">
@@ -810,22 +810,22 @@
         <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2935737318594314</v>
+        <v>0.3508974177002547</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02891728418775689</v>
+        <v>0.05814331514961818</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2117077767895794</v>
+        <v>0.2839518820440018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01797548715500372</v>
+        <v>0.0654513011998475</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9854176466417839</v>
+        <v>0.9779157292085943</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002314392503195705</v>
+        <v>0.008795040553954575</v>
       </c>
     </row>
     <row r="14">
@@ -839,22 +839,22 @@
         <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2685694283160446</v>
+        <v>0.321543179606235</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0214457447672677</v>
+        <v>0.05324025741149557</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1936583478664949</v>
+        <v>0.2521643229819627</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02859362569274856</v>
+        <v>0.05287145029177927</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9874848780688789</v>
+        <v>0.9819684365922117</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003518015355837137</v>
+        <v>0.006166100156089653</v>
       </c>
     </row>
     <row r="15">
@@ -868,22 +868,22 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3434429931779165</v>
+        <v>0.3271169977484721</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06649168852832356</v>
+        <v>0.04809784055240312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2679287765807528</v>
+        <v>0.2614046394824194</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0752744809469906</v>
+        <v>0.05520471197934337</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9796766080362701</v>
+        <v>0.9811094797929154</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007024482336514005</v>
+        <v>0.00677444552484807</v>
       </c>
     </row>
     <row r="16">
@@ -897,22 +897,22 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2881291221413761</v>
+        <v>0.3213703572438917</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0231347248548613</v>
+        <v>0.04506318640445121</v>
       </c>
       <c r="F16" t="n">
-        <v>0.211687795022763</v>
+        <v>0.2469074195939149</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02078897330035213</v>
+        <v>0.0390896216320787</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9859573473264998</v>
+        <v>0.9824820201252249</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001836463643877776</v>
+        <v>0.004182602685590923</v>
       </c>
     </row>
     <row r="17">
@@ -926,22 +926,22 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3500214260676447</v>
+        <v>0.3024117947865194</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06554658569990016</v>
+        <v>0.04666751283740372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2738685680864861</v>
+        <v>0.2324971905874428</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05685678891647242</v>
+        <v>0.03563241419080265</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9784702504799021</v>
+        <v>0.9843714175416638</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007933492263532389</v>
+        <v>0.003941231935944077</v>
       </c>
     </row>
     <row r="18">
@@ -955,22 +955,22 @@
         <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>0.309272568633251</v>
+        <v>0.2823043000140906</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0251544053168797</v>
+        <v>0.01724711914693024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2301242445154976</v>
+        <v>0.2127226200217624</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03040148554192253</v>
+        <v>0.01230296273460438</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9836476109257312</v>
+        <v>0.9864442737770119</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003444390619161406</v>
+        <v>0.002084168890971658</v>
       </c>
     </row>
     <row r="19">
@@ -984,22 +984,22 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>0.298014169825196</v>
+        <v>0.3164954476752433</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04312301642328291</v>
+        <v>0.06033488965065659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2319577802261375</v>
+        <v>0.2402384389162585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05166615124096994</v>
+        <v>0.06137166596400942</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9849740944158212</v>
+        <v>0.9824107102472656</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003221307595200369</v>
+        <v>0.006942425253491065</v>
       </c>
     </row>
     <row r="20">
@@ -1013,22 +1013,22 @@
         <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2938282886382834</v>
+        <v>0.307085426424801</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0604032249793382</v>
+        <v>0.05263261696503052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2305175570733689</v>
+        <v>0.2252500515055499</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06832820810079555</v>
+        <v>0.05481388567055633</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9847385443524223</v>
+        <v>0.983799360620573</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006362058997246216</v>
+        <v>0.004643271167321726</v>
       </c>
     </row>
     <row r="21">
@@ -1042,22 +1042,22 @@
         <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3801155662589993</v>
+        <v>0.3256797599661522</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1310988623168164</v>
+        <v>0.04794514957461304</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3047515814142848</v>
+        <v>0.2423673007871611</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1264018329633742</v>
+        <v>0.02729700272942972</v>
       </c>
       <c r="H21" t="n">
-        <v>0.97327124134831</v>
+        <v>0.9818908975797859</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01807715207868597</v>
+        <v>0.004397878748918822</v>
       </c>
     </row>
     <row r="22">
@@ -1071,22 +1071,22 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3080164016269837</v>
+        <v>0.2996204112153215</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03261904926193879</v>
+        <v>0.06010362642518381</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2438160196474508</v>
+        <v>0.2254722603626442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03777079562102718</v>
+        <v>0.06760543459839566</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9837025003188422</v>
+        <v>0.9835344368906892</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0036524436074034</v>
+        <v>0.008718567055495808</v>
       </c>
     </row>
     <row r="23">
@@ -1100,22 +1100,22 @@
         <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3143160163273694</v>
+        <v>0.2713361831560507</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1075772266523795</v>
+        <v>0.04020362285317557</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2371514006954255</v>
+        <v>0.2044493793796723</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1015589829564857</v>
+        <v>0.04266511043703533</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9819640585867331</v>
+        <v>0.9876828286859431</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0126867489697081</v>
+        <v>0.002129516254225376</v>
       </c>
     </row>
     <row r="24">
@@ -1129,22 +1129,22 @@
         <v>65</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2926004307346073</v>
+        <v>0.3416702968942401</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03904194304758243</v>
+        <v>0.1671167279797888</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2081222413255757</v>
+        <v>0.2602356381370747</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0261685303803517</v>
+        <v>0.1631561938719114</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9854574136757629</v>
+        <v>0.971997631701492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003366450320476459</v>
+        <v>0.03482646800533491</v>
       </c>
     </row>
     <row r="25">
@@ -1158,22 +1158,22 @@
         <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2794880651637075</v>
+        <v>0.2907736349513498</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0328877928622515</v>
+        <v>0.03676166222589453</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1998403606390204</v>
+        <v>0.2196739400398447</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02456466192479793</v>
+        <v>0.04115016486430002</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9866138699662255</v>
+        <v>0.9851737767505189</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003480964754746658</v>
+        <v>0.005027427038466304</v>
       </c>
     </row>
     <row r="26">
@@ -1187,22 +1187,22 @@
         <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3256437948539204</v>
+        <v>0.2532066829317592</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06000224440827667</v>
+        <v>0.02809260124149756</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2579659239316597</v>
+        <v>0.17568140532071</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07428223323788474</v>
+        <v>0.02324625475083866</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9804260519233668</v>
+        <v>0.9891944927900418</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01129169980843939</v>
+        <v>0.001700326589731399</v>
       </c>
     </row>
     <row r="27">
@@ -1216,22 +1216,22 @@
         <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3459207068778559</v>
+        <v>0.3526474867121634</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08390061683810252</v>
+        <v>0.09796895985481607</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2661617874777148</v>
+        <v>0.273857640336903</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08834954380843421</v>
+        <v>0.1140119290476981</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9793956859924016</v>
+        <v>0.9777429372680662</v>
       </c>
       <c r="I27" t="n">
-        <v>0.008555469408538954</v>
+        <v>0.01216666713954307</v>
       </c>
     </row>
     <row r="28">
@@ -1245,22 +1245,22 @@
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2765439988443067</v>
+        <v>0.323762704311921</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04305240110349282</v>
+        <v>0.06155656359237062</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1992795394573822</v>
+        <v>0.257262811322456</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02318243279444447</v>
+        <v>0.06410387861488863</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9869391921814706</v>
+        <v>0.9814950050286265</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00368590169124131</v>
+        <v>0.0070139202985942</v>
       </c>
     </row>
     <row r="29">
@@ -1274,22 +1274,22 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3019736931523854</v>
+        <v>0.3471945815774232</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03726795495769059</v>
+        <v>0.09223645337569229</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2224036149455749</v>
+        <v>0.2704836829325013</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03405389346307162</v>
+        <v>0.074125353096491</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9841497646697011</v>
+        <v>0.9782293179341103</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004657827084242005</v>
+        <v>0.0107224071782576</v>
       </c>
     </row>
     <row r="30">
@@ -1303,22 +1303,22 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2874162514234823</v>
+        <v>0.3452437994939089</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04728239064104217</v>
+        <v>0.06639279711490403</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2174475973556482</v>
+        <v>0.2767183514499478</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05362719800563458</v>
+        <v>0.07613448432635235</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9858816741835176</v>
+        <v>0.9781504830366667</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003865298836994939</v>
+        <v>0.01207302285526814</v>
       </c>
     </row>
     <row r="31">
@@ -1332,22 +1332,22 @@
         <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2933348381599495</v>
+        <v>0.3210232423750564</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03675052461596082</v>
+        <v>0.05309803599354306</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2290768714546116</v>
+        <v>0.2535377222921437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04091669847080216</v>
+        <v>0.05737298535607197</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9855459611150097</v>
+        <v>0.9810973440627022</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002244484876526969</v>
+        <v>0.01004155156548927</v>
       </c>
     </row>
     <row r="32">
@@ -1361,22 +1361,22 @@
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3219854269298518</v>
+        <v>0.2745005609179773</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05226268397432807</v>
+        <v>0.04637889609579272</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2592258600170584</v>
+        <v>0.2085300361937567</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05814468151583886</v>
+        <v>0.04625757354345751</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9822633714406465</v>
+        <v>0.9873511854705501</v>
       </c>
       <c r="I32" t="n">
-        <v>0.004778893715221869</v>
+        <v>0.002861295228517704</v>
       </c>
     </row>
     <row r="33">
@@ -1390,22 +1390,22 @@
         <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3188770175650645</v>
+        <v>0.3731898054572517</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06564256365065332</v>
+        <v>0.1387678057243798</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2522509084724951</v>
+        <v>0.3023271355899156</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07473005941262639</v>
+        <v>0.137420933349716</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9813743539644632</v>
+        <v>0.9735448220068917</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01003230105953714</v>
+        <v>0.01841286892326143</v>
       </c>
     </row>
     <row r="34">
@@ -1419,22 +1419,22 @@
         <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3717081291241862</v>
+        <v>0.3003110831282924</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1531882172066628</v>
+        <v>0.06657163873277505</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2942523275574873</v>
+        <v>0.2194512966160007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1474702706372972</v>
+        <v>0.06526335767433197</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9740929299653661</v>
+        <v>0.9839808925709719</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02090204752819197</v>
+        <v>0.007036249810841199</v>
       </c>
     </row>
     <row r="35">
@@ -1448,22 +1448,22 @@
         <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2803329029551066</v>
+        <v>0.2950955330963527</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03607923694994448</v>
+        <v>0.02058798541988162</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2106605964999483</v>
+        <v>0.2144537632832751</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04779288057851533</v>
+        <v>0.02235445808976733</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9862017776004729</v>
+        <v>0.9852431922565513</v>
       </c>
       <c r="I35" t="n">
-        <v>0.004655200470051467</v>
+        <v>0.001947041153486791</v>
       </c>
     </row>
     <row r="36">
@@ -1477,22 +1477,22 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2826143458558911</v>
+        <v>0.3378736483866194</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03112943746867891</v>
+        <v>0.07289770734720119</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2145036095556237</v>
+        <v>0.2736811346176695</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03571286528564152</v>
+        <v>0.08382855815303883</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9862037851728438</v>
+        <v>0.9804136474102838</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003535018353626404</v>
+        <v>0.006896040580760196</v>
       </c>
     </row>
     <row r="37">
@@ -1506,22 +1506,22 @@
         <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3068263549615721</v>
+        <v>0.3033853479064756</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04315651954838576</v>
+        <v>0.07275335806543948</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2330331350458489</v>
+        <v>0.2320612558039316</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04324959531173575</v>
+        <v>0.07585129163928232</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9840956263083458</v>
+        <v>0.9839764406962044</v>
       </c>
       <c r="I37" t="n">
-        <v>0.003312036098780198</v>
+        <v>0.007332572558449281</v>
       </c>
     </row>
     <row r="38">
@@ -1535,22 +1535,22 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2875935798367898</v>
+        <v>0.2659483867978725</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03874109370330652</v>
+        <v>0.06110317117390815</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2144456253855622</v>
+        <v>0.1901191254269739</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05151812405970714</v>
+        <v>0.04999715976836112</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9850978437353947</v>
+        <v>0.9876945074087494</v>
       </c>
       <c r="I38" t="n">
-        <v>0.006390323279947449</v>
+        <v>0.005345732533466732</v>
       </c>
     </row>
     <row r="39">
@@ -1564,22 +1564,22 @@
         <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3041479155407524</v>
+        <v>0.376965129731993</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06589687262439473</v>
+        <v>0.1554947813741228</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2252339378560543</v>
+        <v>0.2933216672741871</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06487906594236</v>
+        <v>0.1244633970447029</v>
       </c>
       <c r="H39" t="n">
-        <v>0.983599509249338</v>
+        <v>0.9730900637157477</v>
       </c>
       <c r="I39" t="n">
-        <v>0.007037623164148249</v>
+        <v>0.02243803937524282</v>
       </c>
     </row>
     <row r="40">
@@ -1593,22 +1593,22 @@
         <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>0.275920820117828</v>
+        <v>0.3431107820009229</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02683285113892015</v>
+        <v>0.03025149253815581</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1940447310988937</v>
+        <v>0.2714197458775675</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0272495148647072</v>
+        <v>0.02606217961813469</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9871008131855504</v>
+        <v>0.9793998580174257</v>
       </c>
       <c r="I40" t="n">
-        <v>0.002117721704496354</v>
+        <v>0.006809983657067168</v>
       </c>
     </row>
     <row r="41">
@@ -1622,22 +1622,22 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2798285510655149</v>
+        <v>0.2944512736777922</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02347767423025377</v>
+        <v>0.03493943360851471</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2091377374551107</v>
+        <v>0.2145280638270115</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02015347535263486</v>
+        <v>0.04147556382609676</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9868750291838472</v>
+        <v>0.9847935161931363</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0007419311500404387</v>
+        <v>0.005430992473553824</v>
       </c>
     </row>
     <row r="42">
@@ -1651,22 +1651,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.338660078966681</v>
+        <v>0.3208616936587406</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05980335595062757</v>
+        <v>0.08198227923089618</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2453949323121195</v>
+        <v>0.2474587914178824</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04346344998901722</v>
+        <v>0.07552012783254472</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9804881453708898</v>
+        <v>0.9823391058791792</v>
       </c>
       <c r="I42" t="n">
-        <v>0.005596675480638296</v>
+        <v>0.007336873825567173</v>
       </c>
     </row>
     <row r="43">
@@ -1680,22 +1680,22 @@
         <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3103110586549668</v>
+        <v>0.2970305582190457</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01960918764197273</v>
+        <v>0.0534772792400827</v>
       </c>
       <c r="F43" t="n">
-        <v>0.230427186346605</v>
+        <v>0.233893688166786</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01639008607618668</v>
+        <v>0.06535224493070417</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9834707147947593</v>
+        <v>0.9851408214930377</v>
       </c>
       <c r="I43" t="n">
-        <v>0.003458840057691398</v>
+        <v>0.003793759596113258</v>
       </c>
     </row>
     <row r="44">
@@ -1709,22 +1709,22 @@
         <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>0.313519718028446</v>
+        <v>0.2819104665126972</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06439367570565437</v>
+        <v>0.05611208360387242</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2483684084632476</v>
+        <v>0.2175983917136948</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06195808368552928</v>
+        <v>0.0577242582742019</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9833374514839299</v>
+        <v>0.9859612056613696</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00514841444797035</v>
+        <v>0.006602692955214364</v>
       </c>
     </row>
     <row r="45">
@@ -1738,22 +1738,22 @@
         <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3384732545917021</v>
+        <v>0.2996495428562175</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1041707174679318</v>
+        <v>0.08464592452682095</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2652704743606422</v>
+        <v>0.2309839893414193</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1047078932680216</v>
+        <v>0.08410244939678402</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9792904547131489</v>
+        <v>0.9839457142147374</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01230064259106882</v>
+        <v>0.008482084442348162</v>
       </c>
     </row>
     <row r="46">
@@ -1767,22 +1767,22 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3405837412214744</v>
+        <v>0.3263815847871384</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09545885704279011</v>
+        <v>0.06028591721410907</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2658386711815476</v>
+        <v>0.2518149088280828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08657554701580532</v>
+        <v>0.06554129704754869</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9792351185953754</v>
+        <v>0.9809362948475394</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01107601350090714</v>
+        <v>0.008438057205212379</v>
       </c>
     </row>
     <row r="47">
@@ -1796,22 +1796,22 @@
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2559643325001692</v>
+        <v>0.3356435452749362</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01708489492823351</v>
+        <v>0.06859138697455307</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1784679807837662</v>
+        <v>0.2570520402617414</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01218014103251962</v>
+        <v>0.06670180850244989</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9889889351498595</v>
+        <v>0.9803407587314521</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0006056367102239072</v>
+        <v>0.007933874865740643</v>
       </c>
     </row>
     <row r="48">
@@ -1825,22 +1825,22 @@
         <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3115972378998579</v>
+        <v>0.3433439330841528</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07477122322429229</v>
+        <v>0.08738674554784993</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2420726725288523</v>
+        <v>0.2740291935795428</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08844258279051498</v>
+        <v>0.09658023321612108</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9832570478319849</v>
+        <v>0.9785117782463265</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007160452729348761</v>
+        <v>0.01050610625854477</v>
       </c>
     </row>
     <row r="49">
@@ -1854,22 +1854,22 @@
         <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>0.329958832961439</v>
+        <v>0.3023696529602055</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1438863353419709</v>
+        <v>0.05638954403549461</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2660196088096861</v>
+        <v>0.2309603502939377</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1475790140358998</v>
+        <v>0.06717937507284329</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9791117113949246</v>
+        <v>0.9844477117117274</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01872284882765156</v>
+        <v>0.004626974117149393</v>
       </c>
     </row>
     <row r="50">
@@ -1883,22 +1883,22 @@
         <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2979852519731885</v>
+        <v>0.3415760009647646</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06305256333147256</v>
+        <v>0.09241902858261676</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2259958863679212</v>
+        <v>0.2703181715425029</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06853317191150383</v>
+        <v>0.0964112597695381</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9847734001517698</v>
+        <v>0.9792495374773074</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0056867776558025</v>
+        <v>0.01125036652309166</v>
       </c>
     </row>
     <row r="51">
@@ -1912,22 +1912,22 @@
         <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2889666641338633</v>
+        <v>0.29311430682618</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04340609801374547</v>
+        <v>0.04686939210910868</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2140955254257685</v>
+        <v>0.2107770215601936</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04751738543157696</v>
+        <v>0.03400753249419652</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9860396729047871</v>
+        <v>0.9856209331661251</v>
       </c>
       <c r="I51" t="n">
-        <v>0.002425703714982397</v>
+        <v>0.00279163670355776</v>
       </c>
     </row>
     <row r="52">
@@ -1941,22 +1941,22 @@
         <v>75</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2824215127288342</v>
+        <v>0.3092156131254135</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05569333106088356</v>
+        <v>0.07433637209859063</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2160375576267615</v>
+        <v>0.2466967877274326</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05359343643167098</v>
+        <v>0.08705075305133518</v>
       </c>
       <c r="H52" t="n">
-        <v>0.985826390148784</v>
+        <v>0.9831841681240178</v>
       </c>
       <c r="I52" t="n">
-        <v>0.006515004500354144</v>
+        <v>0.007647041253740873</v>
       </c>
     </row>
     <row r="53">
@@ -1970,22 +1970,22 @@
         <v>80</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3031674615512758</v>
+        <v>0.3103040399203782</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06355972336221059</v>
+        <v>0.02294407575478532</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2236883413443493</v>
+        <v>0.2351891024367025</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05654315670829172</v>
+        <v>0.03149453223922418</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9840527434426015</v>
+        <v>0.9833245416834545</v>
       </c>
       <c r="I53" t="n">
-        <v>0.006428691657690149</v>
+        <v>0.00444051587834534</v>
       </c>
     </row>
     <row r="54">
@@ -1999,22 +1999,22 @@
         <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>0.364108670014568</v>
+        <v>0.2474151547870679</v>
       </c>
       <c r="E54" t="n">
-        <v>0.033252289901264</v>
+        <v>0.02113346196587357</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2775537162899511</v>
+        <v>0.182995324753211</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02920383057655836</v>
+        <v>0.01655243903515837</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9776088529230391</v>
+        <v>0.9896992778426524</v>
       </c>
       <c r="I54" t="n">
-        <v>0.003037170871834152</v>
+        <v>0.001106535321661045</v>
       </c>
     </row>
     <row r="55">
@@ -2028,22 +2028,22 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.340515761294254</v>
+        <v>0.2996539183267037</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09017620961325064</v>
+        <v>0.04379435285708383</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2560030583121553</v>
+        <v>0.2345382402542711</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06356055509155679</v>
+        <v>0.04493218596176472</v>
       </c>
       <c r="H55" t="n">
-        <v>0.979426476224261</v>
+        <v>0.984187585920737</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01015781748237729</v>
+        <v>0.00601444506544998</v>
       </c>
     </row>
     <row r="56">
@@ -2057,22 +2057,22 @@
         <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3369736243611594</v>
+        <v>0.2673394232107013</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1199468723264724</v>
+        <v>0.02284178486084847</v>
       </c>
       <c r="F56" t="n">
-        <v>0.241628156167955</v>
+        <v>0.1961289422095031</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09596672759698867</v>
+        <v>0.03352325292029623</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9785721164959138</v>
+        <v>0.9877389700161068</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01435556734972693</v>
+        <v>0.002749813875851529</v>
       </c>
     </row>
     <row r="57">
@@ -2086,22 +2086,22 @@
         <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3437516817348644</v>
+        <v>0.3305364417918392</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1196758345926719</v>
+        <v>0.158043910457992</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2708661741784198</v>
+        <v>0.2676531655108868</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1257140393388793</v>
+        <v>0.167944871111054</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9784031092414059</v>
+        <v>0.978581639001278</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01513782205756347</v>
+        <v>0.02030161233654423</v>
       </c>
     </row>
     <row r="58">
@@ -2115,22 +2115,22 @@
         <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3657410375217839</v>
+        <v>0.294949467961674</v>
       </c>
       <c r="E58" t="n">
-        <v>0.116248446213987</v>
+        <v>0.04874528551558078</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2821344358310248</v>
+        <v>0.2183806977942666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1267731990128128</v>
+        <v>0.050057101200041</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9747528839269014</v>
+        <v>0.985279986026075</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01794346190882967</v>
+        <v>0.003720933778432457</v>
       </c>
     </row>
     <row r="59">
@@ -2144,22 +2144,22 @@
         <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2556814633238239</v>
+        <v>0.302846224971866</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02995663182201646</v>
+        <v>0.05795695721566956</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1800569741566611</v>
+        <v>0.2248540507985417</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02179377127501276</v>
+        <v>0.04580488744996811</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9890001587510844</v>
+        <v>0.9844855784341713</v>
       </c>
       <c r="I59" t="n">
-        <v>0.001801058504870942</v>
+        <v>0.004569336825241879</v>
       </c>
     </row>
     <row r="60">
@@ -2173,22 +2173,22 @@
         <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3415676755862713</v>
+        <v>0.3170747684508782</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1090381317431589</v>
+        <v>0.04967496465523731</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2591188417997051</v>
+        <v>0.2328073423465902</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1010232385911255</v>
+        <v>0.0509059679181474</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9790578336655203</v>
+        <v>0.9818261904018126</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01285519643418064</v>
+        <v>0.008811465587757304</v>
       </c>
     </row>
     <row r="61">
@@ -2202,22 +2202,22 @@
         <v>55</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3080290429089271</v>
+        <v>0.2845941846054921</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02674223973695275</v>
+        <v>0.02828055429883582</v>
       </c>
       <c r="F61" t="n">
-        <v>0.227572771674511</v>
+        <v>0.2043583176288491</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02048477614795967</v>
+        <v>0.03229779047007623</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9840005289960722</v>
+        <v>0.9857996189488502</v>
       </c>
       <c r="I61" t="n">
-        <v>0.002003895596508306</v>
+        <v>0.004460116468433081</v>
       </c>
     </row>
     <row r="62">
@@ -2231,22 +2231,22 @@
         <v>60</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3206948322271723</v>
+        <v>0.2799565019343632</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04640342496518847</v>
+        <v>0.04710936393493161</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2461431895867912</v>
+        <v>0.2103978444180653</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04983126695209086</v>
+        <v>0.04880500431077963</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9824518727204741</v>
+        <v>0.9856342320285728</v>
       </c>
       <c r="I62" t="n">
-        <v>0.004170991330475648</v>
+        <v>0.007510400869839679</v>
       </c>
     </row>
     <row r="63">
@@ -2260,22 +2260,22 @@
         <v>65</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3378581194034333</v>
+        <v>0.2930881113018995</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04701573837853336</v>
+        <v>0.07804532652495887</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2742175548003402</v>
+        <v>0.2136043152670697</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06070797116781623</v>
+        <v>0.06449616075827172</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9805006177156299</v>
+        <v>0.9849016852047676</v>
       </c>
       <c r="I63" t="n">
-        <v>0.004903767955603716</v>
+        <v>0.007533510893555331</v>
       </c>
     </row>
     <row r="64">
@@ -2289,22 +2289,22 @@
         <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3102817076782952</v>
+        <v>0.2774190211381887</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02816527492013962</v>
+        <v>0.05083391328758117</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2387982965047742</v>
+        <v>0.2021263469049773</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03023955739138727</v>
+        <v>0.05855885819489731</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9837375007903585</v>
+        <v>0.986888768614703</v>
       </c>
       <c r="I64" t="n">
-        <v>0.002333053189836305</v>
+        <v>0.004073918567628806</v>
       </c>
     </row>
     <row r="65">
@@ -2318,22 +2318,22 @@
         <v>75</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3528425547739416</v>
+        <v>0.3029508805615942</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1172444887874236</v>
+        <v>0.03777107174941034</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2930430138925231</v>
+        <v>0.2283515189111907</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1242426429251161</v>
+        <v>0.03699915697077324</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9767251298425897</v>
+        <v>0.9839504896253397</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01585507892160243</v>
+        <v>0.005484700638240444</v>
       </c>
     </row>
     <row r="66">
@@ -2347,22 +2347,22 @@
         <v>80</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2862136034953767</v>
+        <v>0.3149464850820906</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03515659135889643</v>
+        <v>0.06347983441155335</v>
       </c>
       <c r="F66" t="n">
-        <v>0.212763851433208</v>
+        <v>0.2458090693502724</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03262779631775668</v>
+        <v>0.06277717051684817</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9855892369042912</v>
+        <v>0.9816500790430925</v>
       </c>
       <c r="I66" t="n">
-        <v>0.005103377696399067</v>
+        <v>0.01064812157809915</v>
       </c>
     </row>
     <row r="67">
@@ -2376,22 +2376,22 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3565618331364289</v>
+        <v>0.2570262986749499</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0495114384653884</v>
+        <v>0.02312425830452597</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2937218337252947</v>
+        <v>0.1836212050336598</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0659878382299125</v>
+        <v>0.02024657934244441</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9774211160026548</v>
+        <v>0.9888669750961945</v>
       </c>
       <c r="I67" t="n">
-        <v>0.008044690547744935</v>
+        <v>0.001496993196667203</v>
       </c>
     </row>
     <row r="68">
@@ -2405,22 +2405,22 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3391961453327734</v>
+        <v>0.3178176101228286</v>
       </c>
       <c r="E68" t="n">
-        <v>0.07322680223323837</v>
+        <v>0.04289839283628569</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2781546733730641</v>
+        <v>0.2324302760013567</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0802251366296234</v>
+        <v>0.02654997690301456</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9784087088133433</v>
+        <v>0.98307261333364</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01184954237779063</v>
+        <v>0.00270575236079641</v>
       </c>
     </row>
     <row r="69">
@@ -2434,22 +2434,22 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2938541152676148</v>
+        <v>0.3209955396151279</v>
       </c>
       <c r="E69" t="n">
-        <v>0.04644856487621051</v>
+        <v>0.03380853283127273</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2141041195021695</v>
+        <v>0.2526170828290003</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03665339414892741</v>
+        <v>0.04959027897263916</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9854144665008064</v>
+        <v>0.98174171218173</v>
       </c>
       <c r="I69" t="n">
-        <v>0.003407960077288059</v>
+        <v>0.006609337645742985</v>
       </c>
     </row>
     <row r="70">
@@ -2463,22 +2463,22 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2743013548919576</v>
+        <v>0.3236732053163604</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02677387978890826</v>
+        <v>0.0611243036393982</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1977469777130431</v>
+        <v>0.2470591758139702</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02298524113076669</v>
+        <v>0.04681501863886786</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9873462063173781</v>
+        <v>0.9815501754441872</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00145537536352801</v>
+        <v>0.007690861987181434</v>
       </c>
     </row>
     <row r="71">
@@ -2492,22 +2492,22 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3391260020407266</v>
+        <v>0.2484584324067494</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04432872472021231</v>
+        <v>0.02414404333164125</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2539668215157926</v>
+        <v>0.1818996971756633</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02843581630954362</v>
+        <v>0.03012164158515971</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9803734136887877</v>
+        <v>0.9895681786985063</v>
       </c>
       <c r="I71" t="n">
-        <v>0.004294952298780215</v>
+        <v>0.001593768513459961</v>
       </c>
     </row>
     <row r="72">
@@ -2521,22 +2521,22 @@
         <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3487136900428659</v>
+        <v>0.3421664240608121</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08826162879720635</v>
+        <v>0.07955158383966103</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2793776628480023</v>
+        <v>0.265243452733292</v>
       </c>
       <c r="G72" t="n">
-        <v>0.09725572166439005</v>
+        <v>0.07052864989428687</v>
       </c>
       <c r="H72" t="n">
-        <v>0.978188734765715</v>
+        <v>0.9796592067418285</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01104444521144497</v>
+        <v>0.008332760881683977</v>
       </c>
     </row>
     <row r="73">
@@ -2550,22 +2550,22 @@
         <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3005389471587196</v>
+        <v>0.2933073830480192</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03173700615742993</v>
+        <v>0.0492562387140742</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2180988019698349</v>
+        <v>0.2156503901720369</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03288993532024685</v>
+        <v>0.036503422601758</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9846337102759597</v>
+        <v>0.9853344595116497</v>
       </c>
       <c r="I73" t="n">
-        <v>0.003094639950631768</v>
+        <v>0.004209429547499559</v>
       </c>
     </row>
     <row r="74">
@@ -2579,22 +2579,22 @@
         <v>55</v>
       </c>
       <c r="D74" t="n">
-        <v>0.291486069369472</v>
+        <v>0.2944440389224494</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02856023116895424</v>
+        <v>0.0214759708530317</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2183720879761691</v>
+        <v>0.222456087256036</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04353771026208909</v>
+        <v>0.03171047398265572</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9851655216182662</v>
+        <v>0.9850703377076213</v>
       </c>
       <c r="I74" t="n">
-        <v>0.004256649585517048</v>
+        <v>0.003527082125120277</v>
       </c>
     </row>
     <row r="75">
@@ -2608,22 +2608,22 @@
         <v>60</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2868627872758736</v>
+        <v>0.3677157814276234</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03159358775383472</v>
+        <v>0.07429324166929166</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2135917729593419</v>
+        <v>0.2767902373385104</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04426019924584234</v>
+        <v>0.0888493830286779</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9855757960518208</v>
+        <v>0.9746910904657522</v>
       </c>
       <c r="I75" t="n">
-        <v>0.004895539276555038</v>
+        <v>0.01492463198179244</v>
       </c>
     </row>
     <row r="76">
@@ -2637,22 +2637,22 @@
         <v>65</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3125910240451159</v>
+        <v>0.2996415431458404</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03787832434136832</v>
+        <v>0.05018097587346802</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2330976964742584</v>
+        <v>0.2294822580839397</v>
       </c>
       <c r="G76" t="n">
-        <v>0.05101877714158176</v>
+        <v>0.05931593432071076</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9829526141056064</v>
+        <v>0.9834971625084435</v>
       </c>
       <c r="I76" t="n">
-        <v>0.005155303817311352</v>
+        <v>0.008845350263698286</v>
       </c>
     </row>
     <row r="77">
@@ -2666,22 +2666,22 @@
         <v>70</v>
       </c>
       <c r="D77" t="n">
-        <v>0.361144494626552</v>
+        <v>0.2882434872351763</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09376815946982778</v>
+        <v>0.02229655917272347</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2708778724760981</v>
+        <v>0.2068297582512429</v>
       </c>
       <c r="G77" t="n">
-        <v>0.09837463630779644</v>
+        <v>0.01612840058997804</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9745084090857429</v>
+        <v>0.9859158566084332</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01827338004625396</v>
+        <v>0.002080419175500839</v>
       </c>
     </row>
     <row r="78">
@@ -2695,22 +2695,22 @@
         <v>75</v>
       </c>
       <c r="D78" t="n">
-        <v>0.273283795283474</v>
+        <v>0.2910963225747464</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02406338037575314</v>
+        <v>0.02279199964150617</v>
       </c>
       <c r="F78" t="n">
-        <v>0.209360403796386</v>
+        <v>0.2230735079862181</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02239390166364115</v>
+        <v>0.02619856384747335</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9872156322306106</v>
+        <v>0.985766029797236</v>
       </c>
       <c r="I78" t="n">
-        <v>0.002719627013817645</v>
+        <v>0.0009996696487752797</v>
       </c>
     </row>
     <row r="79">
@@ -2724,22 +2724,22 @@
         <v>80</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3012871151679148</v>
+        <v>0.2579741009981313</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06391089758401165</v>
+        <v>0.04404577865986952</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2365176706459249</v>
+        <v>0.1833503774130023</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06264640988313416</v>
+        <v>0.03719847562258874</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9844903969782186</v>
+        <v>0.9886875999452223</v>
       </c>
       <c r="I79" t="n">
-        <v>0.005523464753100632</v>
+        <v>0.003313272947136313</v>
       </c>
     </row>
     <row r="80">
@@ -2753,22 +2753,22 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3031245738459806</v>
+        <v>0.3168306081451878</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04705492621908064</v>
+        <v>0.01991286344356992</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2402592012168761</v>
+        <v>0.238466735168006</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05816989350893756</v>
+        <v>0.0199499657807739</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9841842839811932</v>
+        <v>0.9831258233009453</v>
       </c>
       <c r="I80" t="n">
-        <v>0.004599062626757953</v>
+        <v>0.0007989075413397976</v>
       </c>
     </row>
     <row r="81">
@@ -2782,22 +2782,22 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3631164076555199</v>
+        <v>0.2994121283432623</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03100430824665067</v>
+        <v>0.05485267868886255</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2865920888398169</v>
+        <v>0.2326912501435306</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03402847127550167</v>
+        <v>0.06027012282410608</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9773518702670078</v>
+        <v>0.9844797346908025</v>
       </c>
       <c r="I81" t="n">
-        <v>0.005075308023527648</v>
+        <v>0.005358174455462717</v>
       </c>
     </row>
     <row r="82">
@@ -2811,22 +2811,22 @@
         <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3452055577275554</v>
+        <v>0.2908121164012626</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1149947207035195</v>
+        <v>0.07383755124373723</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2728006536255544</v>
+        <v>0.2169352113885817</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1229141571027617</v>
+        <v>0.07068581008711611</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9789213711313339</v>
+        <v>0.9852086980012009</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0128928568506637</v>
+        <v>0.006891817280464931</v>
       </c>
     </row>
     <row r="83">
@@ -2840,22 +2840,22 @@
         <v>35</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3175740338820208</v>
+        <v>0.2888451886885733</v>
       </c>
       <c r="E83" t="n">
-        <v>0.06971036503526033</v>
+        <v>0.04000597539666673</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2481091269900326</v>
+        <v>0.2142108701988689</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0696166940708194</v>
+        <v>0.03683633573749237</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9817949292636963</v>
+        <v>0.9856948717962866</v>
       </c>
       <c r="I83" t="n">
-        <v>0.008504042543243079</v>
+        <v>0.00374553251579853</v>
       </c>
     </row>
     <row r="84">
@@ -2869,22 +2869,22 @@
         <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3286413845300363</v>
+        <v>0.3293344453829622</v>
       </c>
       <c r="E84" t="n">
-        <v>0.06761836382563187</v>
+        <v>0.07956148224226108</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2636503939076067</v>
+        <v>0.2439202855705464</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0744956114947154</v>
+        <v>0.0791511462577893</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9815424313273526</v>
+        <v>0.9811591798259529</v>
       </c>
       <c r="I84" t="n">
-        <v>0.006174874891329936</v>
+        <v>0.008246890853418809</v>
       </c>
     </row>
     <row r="85">
@@ -2898,22 +2898,22 @@
         <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3165551126114444</v>
+        <v>0.3311858008957358</v>
       </c>
       <c r="E85" t="n">
-        <v>0.08197197155689354</v>
+        <v>0.1113877963310352</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2330106047364079</v>
+        <v>0.2698736861822371</v>
       </c>
       <c r="G85" t="n">
-        <v>0.06969138836043545</v>
+        <v>0.122993606203381</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9820628565869065</v>
+        <v>0.9799056377846224</v>
       </c>
       <c r="I85" t="n">
-        <v>0.009017984408040133</v>
+        <v>0.01306006151773606</v>
       </c>
     </row>
     <row r="86">
@@ -2927,22 +2927,22 @@
         <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2548663665736538</v>
+        <v>0.2681757154873166</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01858851433322015</v>
+        <v>0.01997027352770974</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1814469328207838</v>
+        <v>0.1939352436671212</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01839657936278869</v>
+        <v>0.008856442816207974</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9890419202679375</v>
+        <v>0.987837234490188</v>
       </c>
       <c r="I86" t="n">
-        <v>0.001281855828766457</v>
+        <v>0.001642435309096429</v>
       </c>
     </row>
     <row r="87">
@@ -2956,22 +2956,22 @@
         <v>55</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2648705902165558</v>
+        <v>0.3642133124668473</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02437413372634691</v>
+        <v>0.128849359381364</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1891327240999586</v>
+        <v>0.300213546489547</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01480990492083603</v>
+        <v>0.1471687748161269</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9880495129563973</v>
+        <v>0.9736878740651681</v>
       </c>
       <c r="I87" t="n">
-        <v>0.002280613223904861</v>
+        <v>0.02072249211476308</v>
       </c>
     </row>
     <row r="88">
@@ -2985,22 +2985,22 @@
         <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3537334328206759</v>
+        <v>0.358207072230382</v>
       </c>
       <c r="E88" t="n">
-        <v>0.07697938206508843</v>
+        <v>0.08185235347091338</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2855253977039925</v>
+        <v>0.283605698862782</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07400513618661597</v>
+        <v>0.09775350812874178</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9784356070946727</v>
+        <v>0.9759186358635876</v>
       </c>
       <c r="I88" t="n">
-        <v>0.008133674925994183</v>
+        <v>0.01520747507917315</v>
       </c>
     </row>
     <row r="89">
@@ -3014,22 +3014,22 @@
         <v>65</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3787277387620269</v>
+        <v>0.3026564294944126</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07796779310295283</v>
+        <v>0.03747508582777709</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2891830826036361</v>
+        <v>0.2263350878620787</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06505429538755132</v>
+        <v>0.03994674648091051</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9748163145846338</v>
+        <v>0.9845615893124698</v>
       </c>
       <c r="I89" t="n">
-        <v>0.009768494323941973</v>
+        <v>0.002599564480579011</v>
       </c>
     </row>
     <row r="90">
@@ -3043,22 +3043,22 @@
         <v>70</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3043319571917955</v>
+        <v>0.2792057803556866</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05990009737421114</v>
+        <v>0.06308847087808765</v>
       </c>
       <c r="F90" t="n">
-        <v>0.232532814196537</v>
+        <v>0.2005538138662223</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05779106570398338</v>
+        <v>0.05469256906888145</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9835675811079925</v>
+        <v>0.9866139874919705</v>
       </c>
       <c r="I90" t="n">
-        <v>0.006855638242110378</v>
+        <v>0.00488073313621244</v>
       </c>
     </row>
     <row r="91">
@@ -3072,22 +3072,22 @@
         <v>75</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3097766435886208</v>
+        <v>0.4152221808272653</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03845652830632002</v>
+        <v>0.09593506859595531</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2319288721456776</v>
+        <v>0.3363684617188346</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03750903211428297</v>
+        <v>0.1013396721961038</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9831825414741026</v>
+        <v>0.970794393472727</v>
       </c>
       <c r="I91" t="n">
-        <v>0.005799907242584544</v>
+        <v>0.01003298875322361</v>
       </c>
     </row>
     <row r="92">
@@ -3101,22 +3101,22 @@
         <v>80</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3432868056783117</v>
+        <v>0.3507161375330602</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1007818531644751</v>
+        <v>0.05936431943890122</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2680414858856727</v>
+        <v>0.2800633207434995</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09655611400003181</v>
+        <v>0.04746295931211508</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9795184834676409</v>
+        <v>0.9787420066304128</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0105295564266944</v>
+        <v>0.006314655083334704</v>
       </c>
     </row>
     <row r="93">
@@ -3130,22 +3130,22 @@
         <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2865824835464489</v>
+        <v>0.2691085788869881</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03370446594318125</v>
+        <v>0.01554350628209359</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2088998449006597</v>
+        <v>0.200789531841931</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03941978366322216</v>
+        <v>0.01760172577365031</v>
       </c>
       <c r="H93" t="n">
-        <v>0.985613274318337</v>
+        <v>0.9877104412351846</v>
       </c>
       <c r="I93" t="n">
-        <v>0.004867960280368746</v>
+        <v>0.00166329012373864</v>
       </c>
     </row>
     <row r="94">
@@ -3159,22 +3159,22 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3552426663809845</v>
+        <v>0.3337729623927452</v>
       </c>
       <c r="E94" t="n">
-        <v>0.08306195686747711</v>
+        <v>0.05600030185966198</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2759824143793645</v>
+        <v>0.2583172274370743</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0878490765521649</v>
+        <v>0.059225166013356</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9770201528433503</v>
+        <v>0.9809796104222297</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01143745318859203</v>
+        <v>0.005000078416184273</v>
       </c>
     </row>
     <row r="95">
@@ -3188,22 +3188,22 @@
         <v>30</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3411290301983101</v>
+        <v>0.2875291450557062</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07199442646539135</v>
+        <v>0.02527362271026768</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2712691105684367</v>
+        <v>0.2160963564410342</v>
       </c>
       <c r="G95" t="n">
-        <v>0.06419969262364342</v>
+        <v>0.02507883837489864</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9795804644983612</v>
+        <v>0.9860434466665394</v>
       </c>
       <c r="I95" t="n">
-        <v>0.009117662375551627</v>
+        <v>0.002039320478320906</v>
       </c>
     </row>
     <row r="96">
@@ -3217,22 +3217,22 @@
         <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>0.30985125178275</v>
+        <v>0.2738840745577724</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03324903822885537</v>
+        <v>0.03535891770150378</v>
       </c>
       <c r="F96" t="n">
-        <v>0.231436812114148</v>
+        <v>0.1954349039884244</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03277539672018075</v>
+        <v>0.04451761031623782</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9836687875516752</v>
+        <v>0.9866425781195701</v>
       </c>
       <c r="I96" t="n">
-        <v>0.003559342402988269</v>
+        <v>0.005679627706010775</v>
       </c>
     </row>
     <row r="97">
@@ -3246,22 +3246,22 @@
         <v>40</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4514785607170246</v>
+        <v>0.3339085050456987</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1309597214690727</v>
+        <v>0.08480011435753407</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3851287199768382</v>
+        <v>0.2492730003838305</v>
       </c>
       <c r="G97" t="n">
-        <v>0.139438258203698</v>
+        <v>0.09139097268632775</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9607348903248386</v>
+        <v>0.978587391025273</v>
       </c>
       <c r="I97" t="n">
-        <v>0.02697688882380836</v>
+        <v>0.01496429311521092</v>
       </c>
     </row>
     <row r="98">
@@ -3275,22 +3275,22 @@
         <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3160001206687921</v>
+        <v>0.4324065751083011</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07270793956511297</v>
+        <v>0.2476180404614816</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2312503598926463</v>
+        <v>0.3190585712610514</v>
       </c>
       <c r="G98" t="n">
-        <v>0.07375328765892256</v>
+        <v>0.1771980804979375</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9818640330040674</v>
+        <v>0.9548854075187607</v>
       </c>
       <c r="I98" t="n">
-        <v>0.009057722630750139</v>
+        <v>0.05271334434327606</v>
       </c>
     </row>
     <row r="99">
@@ -3304,22 +3304,22 @@
         <v>50</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3129879402670568</v>
+        <v>0.3153315969106628</v>
       </c>
       <c r="E99" t="n">
-        <v>0.09321342086949022</v>
+        <v>0.04452059957886869</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2405741359286689</v>
+        <v>0.2322005131257707</v>
       </c>
       <c r="G99" t="n">
-        <v>0.07924374323722468</v>
+        <v>0.03231854734759172</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9823920131158503</v>
+        <v>0.9833660391063805</v>
       </c>
       <c r="I99" t="n">
-        <v>0.01036431462430574</v>
+        <v>0.002684399461600041</v>
       </c>
     </row>
     <row r="100">
@@ -3333,22 +3333,22 @@
         <v>55</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3580433521524501</v>
+        <v>0.2749874766882648</v>
       </c>
       <c r="E100" t="n">
-        <v>0.05989568901065617</v>
+        <v>0.03303622543905781</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2814470862181356</v>
+        <v>0.2037727335580616</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06923377952093321</v>
+        <v>0.02656360885534344</v>
       </c>
       <c r="H100" t="n">
-        <v>0.97795765019507</v>
+        <v>0.9873014277355493</v>
       </c>
       <c r="I100" t="n">
-        <v>0.006703339541172861</v>
+        <v>0.001854671006915864</v>
       </c>
     </row>
     <row r="101">
@@ -3362,22 +3362,22 @@
         <v>60</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2975357629410117</v>
+        <v>0.2730563417716138</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05580042810407961</v>
+        <v>0.0245350444512299</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2212127469957721</v>
+        <v>0.200933448271678</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05120373410406312</v>
+        <v>0.02783186515127411</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9850859206696871</v>
+        <v>0.9871081578879479</v>
       </c>
       <c r="I101" t="n">
-        <v>0.003996365584046081</v>
+        <v>0.003269540717206673</v>
       </c>
     </row>
     <row r="102">
@@ -3391,22 +3391,22 @@
         <v>65</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2959199422590116</v>
+        <v>0.2756592182205524</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05469939639359786</v>
+        <v>0.06199779348248999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.219558836902653</v>
+        <v>0.1963996985338854</v>
       </c>
       <c r="G102" t="n">
-        <v>0.04302937380359573</v>
+        <v>0.03887245946446646</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9850401257633065</v>
+        <v>0.9869810818547506</v>
       </c>
       <c r="I102" t="n">
-        <v>0.00480977474936545</v>
+        <v>0.005097454691920655</v>
       </c>
     </row>
     <row r="103">
@@ -3420,22 +3420,22 @@
         <v>70</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3071687439601061</v>
+        <v>0.3680909215702828</v>
       </c>
       <c r="E103" t="n">
-        <v>0.05506701666447176</v>
+        <v>0.05138029918094068</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2358078772656319</v>
+        <v>0.2975148963083499</v>
       </c>
       <c r="G103" t="n">
-        <v>0.05908281943832881</v>
+        <v>0.04776014719674299</v>
       </c>
       <c r="H103" t="n">
-        <v>0.983387060980322</v>
+        <v>0.9772632351824451</v>
       </c>
       <c r="I103" t="n">
-        <v>0.006422559917455089</v>
+        <v>0.003989262789590184</v>
       </c>
     </row>
     <row r="104">
@@ -3449,22 +3449,22 @@
         <v>75</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2823023437284993</v>
+        <v>0.3416626811161186</v>
       </c>
       <c r="E104" t="n">
-        <v>0.03341118269181629</v>
+        <v>0.07346800246734202</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2046477528473847</v>
+        <v>0.2620345385700472</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02778335061499158</v>
+        <v>0.07155754548885918</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9864428655537989</v>
+        <v>0.9793033660624595</v>
       </c>
       <c r="I104" t="n">
-        <v>0.002812827868148421</v>
+        <v>0.008735872789197201</v>
       </c>
     </row>
     <row r="105">
@@ -3478,22 +3478,22 @@
         <v>80</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3283639498225772</v>
+        <v>0.2933505855187466</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03610638020967623</v>
+        <v>0.05995639764654561</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2663526596546119</v>
+        <v>0.2226467571479793</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0526884025168089</v>
+        <v>0.05926765634963189</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9811214068273735</v>
+        <v>0.9853509758632505</v>
       </c>
       <c r="I105" t="n">
-        <v>0.005810965050787198</v>
+        <v>0.005003357147115996</v>
       </c>
     </row>
     <row r="106">
@@ -3507,22 +3507,22 @@
         <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3285373685930714</v>
+        <v>0.347590874677176</v>
       </c>
       <c r="E106" t="n">
-        <v>0.07389107459922846</v>
+        <v>0.03406150226662889</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2570367011125769</v>
+        <v>0.26686394723193</v>
       </c>
       <c r="G106" t="n">
-        <v>0.07970243450062736</v>
+        <v>0.02945177584711727</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9801270050865911</v>
+        <v>0.9794739633829421</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01068481887044504</v>
+        <v>0.003515504868316511</v>
       </c>
     </row>
     <row r="107">
@@ -3536,22 +3536,22 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3571033727050768</v>
+        <v>0.3178239800707361</v>
       </c>
       <c r="E107" t="n">
-        <v>0.05866730663092623</v>
+        <v>0.0314447921308119</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2848693962830222</v>
+        <v>0.2466476310729218</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06672588008983522</v>
+        <v>0.04070123343295259</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9781975853342706</v>
+        <v>0.9828067009217947</v>
       </c>
       <c r="I107" t="n">
-        <v>0.00577042669672536</v>
+        <v>0.003233276782746672</v>
       </c>
     </row>
     <row r="108">
@@ -3565,22 +3565,22 @@
         <v>30</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3069020306267086</v>
+        <v>0.3125649074239174</v>
       </c>
       <c r="E108" t="n">
-        <v>0.04287768371684813</v>
+        <v>0.08210972015125446</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2341380685782092</v>
+        <v>0.24814347530183</v>
       </c>
       <c r="G108" t="n">
-        <v>0.05177357442830038</v>
+        <v>0.09793261513045241</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9838477821219076</v>
+        <v>0.9809182562484013</v>
       </c>
       <c r="I108" t="n">
-        <v>0.004336320371422122</v>
+        <v>0.0147329624748769</v>
       </c>
     </row>
     <row r="109">
@@ -3594,22 +3594,22 @@
         <v>35</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3236515490513697</v>
+        <v>0.3015226904291641</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0646973752819418</v>
+        <v>0.05621727353036268</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2466421007163946</v>
+        <v>0.2299054126258684</v>
       </c>
       <c r="G109" t="n">
-        <v>0.05518152624333858</v>
+        <v>0.05099972039530028</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9820950673083958</v>
+        <v>0.9843382537243974</v>
       </c>
       <c r="I109" t="n">
-        <v>0.006259415872418832</v>
+        <v>0.005115706469159506</v>
       </c>
     </row>
     <row r="110">
@@ -3623,22 +3623,22 @@
         <v>40</v>
       </c>
       <c r="D110" t="n">
-        <v>0.339211055086465</v>
+        <v>0.2807760588599073</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06603285779146918</v>
+        <v>0.03131690055232676</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2613619549192092</v>
+        <v>0.2180831623757643</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07373749896546218</v>
+        <v>0.0294177135986713</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9791359786260939</v>
+        <v>0.9866303000759131</v>
       </c>
       <c r="I110" t="n">
-        <v>0.01028570726902524</v>
+        <v>0.002694796347002315</v>
       </c>
     </row>
     <row r="111">
@@ -3652,22 +3652,22 @@
         <v>45</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3104951520357156</v>
+        <v>0.270928618489458</v>
       </c>
       <c r="E111" t="n">
-        <v>0.07656973306989759</v>
+        <v>0.05835874131367752</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2363970102192044</v>
+        <v>0.2012682361052742</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07739555807426166</v>
+        <v>0.05618038676512122</v>
       </c>
       <c r="H111" t="n">
-        <v>0.982387529355061</v>
+        <v>0.9874900697444635</v>
       </c>
       <c r="I111" t="n">
-        <v>0.009640198324425801</v>
+        <v>0.004574548450767932</v>
       </c>
     </row>
     <row r="112">
@@ -3681,22 +3681,22 @@
         <v>50</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3624967803383798</v>
+        <v>0.306510217170894</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1578287965772217</v>
+        <v>0.07609356404712345</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2935681265111606</v>
+        <v>0.2365545502563245</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1639558779471431</v>
+        <v>0.07795641461375886</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9720211202891079</v>
+        <v>0.98289928492108</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02713910376387868</v>
+        <v>0.01017960775073078</v>
       </c>
     </row>
     <row r="113">
@@ -3710,22 +3710,22 @@
         <v>55</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3474364366969446</v>
+        <v>0.2728063299949072</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09254444021421818</v>
+        <v>0.05026555095158138</v>
       </c>
       <c r="F113" t="n">
-        <v>0.266584406438756</v>
+        <v>0.1977922198427072</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06731430484849688</v>
+        <v>0.03703891272227035</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9792604835094039</v>
+        <v>0.986970068182947</v>
       </c>
       <c r="I113" t="n">
-        <v>0.009404108936055392</v>
+        <v>0.00496457118783381</v>
       </c>
     </row>
     <row r="114">
@@ -3739,22 +3739,22 @@
         <v>60</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3317474449423609</v>
+        <v>0.3160468913150977</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07304689642436736</v>
+        <v>0.07936061638671978</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2676096281199906</v>
+        <v>0.2270012421560694</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08490145600999383</v>
+        <v>0.07739719895982312</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9794925307780759</v>
+        <v>0.9825357009461216</v>
       </c>
       <c r="I114" t="n">
-        <v>0.01262330445124755</v>
+        <v>0.008293712096731761</v>
       </c>
     </row>
     <row r="115">
@@ -3768,22 +3768,22 @@
         <v>65</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3080772287124259</v>
+        <v>0.2892250508102274</v>
       </c>
       <c r="E115" t="n">
-        <v>0.06386325209766432</v>
+        <v>0.0347846670178592</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2423969658541599</v>
+        <v>0.2169363599750536</v>
       </c>
       <c r="G115" t="n">
-        <v>0.06277222414562296</v>
+        <v>0.04037000312179542</v>
       </c>
       <c r="H115" t="n">
-        <v>0.983580220980633</v>
+        <v>0.9851561137675212</v>
       </c>
       <c r="I115" t="n">
-        <v>0.006186977146010988</v>
+        <v>0.005583360233693729</v>
       </c>
     </row>
     <row r="116">
@@ -3797,22 +3797,22 @@
         <v>70</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2705786318458884</v>
+        <v>0.2835551413235956</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03921067193351924</v>
+        <v>0.04239391706392871</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2006877331836545</v>
+        <v>0.2051465156468553</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04098529213410364</v>
+        <v>0.03796837100298248</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9875165364038517</v>
+        <v>0.9860846209310246</v>
       </c>
       <c r="I116" t="n">
-        <v>0.003152745254972695</v>
+        <v>0.004709672839416076</v>
       </c>
     </row>
     <row r="117">
@@ -3826,22 +3826,22 @@
         <v>75</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3356345190165008</v>
+        <v>0.3819714536141408</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08970391093959167</v>
+        <v>0.1008008373103149</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2554830003028813</v>
+        <v>0.3131061792457135</v>
       </c>
       <c r="G117" t="n">
-        <v>0.07882699245367866</v>
+        <v>0.1077077283143062</v>
       </c>
       <c r="H117" t="n">
-        <v>0.979389240523678</v>
+        <v>0.9747474294162535</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01037073284631131</v>
+        <v>0.01087038112696045</v>
       </c>
     </row>
     <row r="118">
@@ -3855,22 +3855,22 @@
         <v>80</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3086364145198666</v>
+        <v>0.343187652594226</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05177031106828141</v>
+        <v>0.1297783508303978</v>
       </c>
       <c r="F118" t="n">
-        <v>0.242050889160759</v>
+        <v>0.2827173057506436</v>
       </c>
       <c r="G118" t="n">
-        <v>0.05006078691423688</v>
+        <v>0.147294140938471</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9839150916745621</v>
+        <v>0.9783727604524719</v>
       </c>
       <c r="I118" t="n">
-        <v>0.004145860356217672</v>
+        <v>0.01464475836757868</v>
       </c>
     </row>
     <row r="119">
@@ -3884,22 +3884,22 @@
         <v>20</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2546058345248491</v>
+        <v>0.2918369351099307</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02135550889172926</v>
+        <v>0.03215585682564233</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1769844682371705</v>
+        <v>0.2161492506688179</v>
       </c>
       <c r="G119" t="n">
-        <v>0.01411034845834861</v>
+        <v>0.03362459642011695</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9891330780205317</v>
+        <v>0.9856814068980629</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0006262003345084879</v>
+        <v>0.001935902515631137</v>
       </c>
     </row>
     <row r="120">
@@ -3913,22 +3913,22 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3331825300416315</v>
+        <v>0.3075699371763219</v>
       </c>
       <c r="E120" t="n">
-        <v>0.03903456720143989</v>
+        <v>0.06869143060134522</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2582306910598184</v>
+        <v>0.2305806577134961</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04298302457613831</v>
+        <v>0.06662911830182432</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9809290998296852</v>
+        <v>0.9836510259868895</v>
       </c>
       <c r="I120" t="n">
-        <v>0.004855877164136298</v>
+        <v>0.006679851943609634</v>
       </c>
     </row>
     <row r="121">
@@ -3942,22 +3942,22 @@
         <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2797579204314363</v>
+        <v>0.3455643089974511</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03021954972841794</v>
+        <v>0.1322353316641791</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2013604948312395</v>
+        <v>0.2696706829717828</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03216738492232641</v>
+        <v>0.136369302828466</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9869071590188059</v>
+        <v>0.9774972805029274</v>
       </c>
       <c r="I121" t="n">
-        <v>0.001262383094364174</v>
+        <v>0.016470102556755</v>
       </c>
     </row>
     <row r="122">
@@ -3971,22 +3971,22 @@
         <v>35</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3213839579291129</v>
+        <v>0.3282308015903417</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1107310633695832</v>
+        <v>0.05328898024393657</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2509834557457101</v>
+        <v>0.2629582194121768</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1116710182898196</v>
+        <v>0.05581700176047727</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9813439148140499</v>
+        <v>0.9809354247991097</v>
       </c>
       <c r="I122" t="n">
-        <v>0.01148390714426902</v>
+        <v>0.007252394681431501</v>
       </c>
     </row>
     <row r="123">
@@ -4000,22 +4000,22 @@
         <v>40</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2964644456992139</v>
+        <v>0.3649498756017542</v>
       </c>
       <c r="E123" t="n">
-        <v>0.02840510077008948</v>
+        <v>0.1463815941038107</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2261107041335405</v>
+        <v>0.2983326940910421</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03467628796775198</v>
+        <v>0.1392503923886474</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9847895515709283</v>
+        <v>0.9709622911250628</v>
       </c>
       <c r="I123" t="n">
-        <v>0.003815487326888894</v>
+        <v>0.02997922864409966</v>
       </c>
     </row>
     <row r="124">
@@ -4029,22 +4029,22 @@
         <v>45</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3381522035401544</v>
+        <v>0.3141540386042025</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07190154688521437</v>
+        <v>0.02167655203172279</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2437208656155037</v>
+        <v>0.2289433195258754</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04656377951217158</v>
+        <v>0.02716300636087764</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9796323111762639</v>
+        <v>0.982960489403047</v>
       </c>
       <c r="I124" t="n">
-        <v>0.009368119670221933</v>
+        <v>0.004282820927643521</v>
       </c>
     </row>
     <row r="125">
@@ -4058,22 +4058,22 @@
         <v>50</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3828487530000196</v>
+        <v>0.3170131661464327</v>
       </c>
       <c r="E125" t="n">
-        <v>0.08973244310122078</v>
+        <v>0.08886504489871183</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3072732363308757</v>
+        <v>0.2442420442046772</v>
       </c>
       <c r="G125" t="n">
-        <v>0.08880038782168366</v>
+        <v>0.0985942014757541</v>
       </c>
       <c r="H125" t="n">
-        <v>0.9744791944684245</v>
+        <v>0.9819553124523341</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0109355973186251</v>
+        <v>0.00994876119112735</v>
       </c>
     </row>
     <row r="126">
@@ -4087,22 +4087,22 @@
         <v>55</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2793388168182945</v>
+        <v>0.2653458713354124</v>
       </c>
       <c r="E126" t="n">
-        <v>0.04091550941773058</v>
+        <v>0.01890392518708295</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2041798978836816</v>
+        <v>0.1948817955612819</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03462840096977453</v>
+        <v>0.01458849526880467</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9860416120720199</v>
+        <v>0.9879076123154616</v>
       </c>
       <c r="I126" t="n">
-        <v>0.005812658392043034</v>
+        <v>0.002548319497178443</v>
       </c>
     </row>
     <row r="127">
@@ -4116,22 +4116,22 @@
         <v>60</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3295608544401817</v>
+        <v>0.3397201088874949</v>
       </c>
       <c r="E127" t="n">
-        <v>0.05947575440259966</v>
+        <v>0.127194202876365</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2640055668634959</v>
+        <v>0.2650111878324043</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04949318174498284</v>
+        <v>0.1280507598531486</v>
       </c>
       <c r="H127" t="n">
-        <v>0.9817719907850245</v>
+        <v>0.9767282519835045</v>
       </c>
       <c r="I127" t="n">
-        <v>0.004383959583609319</v>
+        <v>0.02016054308300049</v>
       </c>
     </row>
     <row r="128">
@@ -4145,22 +4145,22 @@
         <v>65</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3746215027405875</v>
+        <v>0.304687792706798</v>
       </c>
       <c r="E128" t="n">
-        <v>0.06592241996022531</v>
+        <v>0.06551966024618085</v>
       </c>
       <c r="F128" t="n">
-        <v>0.307309513449269</v>
+        <v>0.231381055770904</v>
       </c>
       <c r="G128" t="n">
-        <v>0.06200713324712961</v>
+        <v>0.05204962627985436</v>
       </c>
       <c r="H128" t="n">
-        <v>0.97573231764969</v>
+        <v>0.9837627563962353</v>
       </c>
       <c r="I128" t="n">
-        <v>0.00800475689492767</v>
+        <v>0.007044461939484581</v>
       </c>
     </row>
     <row r="129">
@@ -4174,22 +4174,22 @@
         <v>70</v>
       </c>
       <c r="D129" t="n">
-        <v>0.319885947136436</v>
+        <v>0.2993554146180487</v>
       </c>
       <c r="E129" t="n">
-        <v>0.06360782811674731</v>
+        <v>0.06143464817864595</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2395520746168422</v>
+        <v>0.2194923822771787</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04335699936152793</v>
+        <v>0.0540512034768916</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9812231573069253</v>
+        <v>0.9846432325707877</v>
       </c>
       <c r="I129" t="n">
-        <v>0.009272369560620695</v>
+        <v>0.005514474599330558</v>
       </c>
     </row>
     <row r="130">
@@ -4203,22 +4203,22 @@
         <v>75</v>
       </c>
       <c r="D130" t="n">
-        <v>0.327605011181931</v>
+        <v>0.3528096438618181</v>
       </c>
       <c r="E130" t="n">
-        <v>0.09284370332559375</v>
+        <v>0.07939209682859601</v>
       </c>
       <c r="F130" t="n">
-        <v>0.251221986640199</v>
+        <v>0.2790313387354636</v>
       </c>
       <c r="G130" t="n">
-        <v>0.08117542325878081</v>
+        <v>0.08237946469699013</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9807891704919584</v>
+        <v>0.9783674075933068</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01013891256849622</v>
+        <v>0.008121152042259569</v>
       </c>
     </row>
     <row r="131">
@@ -4232,22 +4232,22 @@
         <v>80</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2800499942272344</v>
+        <v>0.2948599001169304</v>
       </c>
       <c r="E131" t="n">
-        <v>0.03823858278454276</v>
+        <v>0.03233466956740003</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2122686884166374</v>
+        <v>0.220707681972813</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03437651933693366</v>
+        <v>0.04156234307944128</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9864016899555</v>
+        <v>0.9846215756561192</v>
       </c>
       <c r="I131" t="n">
-        <v>0.00400151952794412</v>
+        <v>0.006016191099813301</v>
       </c>
     </row>
     <row r="132">
@@ -4261,22 +4261,22 @@
         <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.332058611312486</v>
+        <v>0.3131983584184056</v>
       </c>
       <c r="E132" t="n">
-        <v>0.06612810270677238</v>
+        <v>0.05470237418429305</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2538287996748408</v>
+        <v>0.2326886966960759</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0687357898234969</v>
+        <v>0.04227794737642951</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9810396836165213</v>
+        <v>0.983250501146544</v>
       </c>
       <c r="I132" t="n">
-        <v>0.006377312647746142</v>
+        <v>0.004983232915192383</v>
       </c>
     </row>
     <row r="133">
@@ -4290,22 +4290,22 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2984642000527086</v>
+        <v>0.3012563698028433</v>
       </c>
       <c r="E133" t="n">
-        <v>0.02357153106734359</v>
+        <v>0.03528551619776205</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2330524183670726</v>
+        <v>0.2377251481256176</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03232536342886048</v>
+        <v>0.04895961728232247</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9849146933001954</v>
+        <v>0.9838593558846597</v>
       </c>
       <c r="I133" t="n">
-        <v>0.002120001339584167</v>
+        <v>0.006343893086511074</v>
       </c>
     </row>
     <row r="134">
@@ -4319,22 +4319,22 @@
         <v>30</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303943603457505</v>
+        <v>0.2771607202607106</v>
       </c>
       <c r="E134" t="n">
-        <v>0.06855147419561783</v>
+        <v>0.05625914983218766</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2340039536479982</v>
+        <v>0.1951829557642371</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06798098981879033</v>
+        <v>0.03671393252539513</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9841835881760662</v>
+        <v>0.9865925398422032</v>
       </c>
       <c r="I134" t="n">
-        <v>0.00626198250057586</v>
+        <v>0.00519732651499162</v>
       </c>
     </row>
     <row r="135">
@@ -4348,22 +4348,22 @@
         <v>35</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3361802170123897</v>
+        <v>0.3212142258720448</v>
       </c>
       <c r="E135" t="n">
-        <v>0.06956962266111731</v>
+        <v>0.09040315355079076</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2760843799384012</v>
+        <v>0.2432391013386526</v>
       </c>
       <c r="G135" t="n">
-        <v>0.07447226216443313</v>
+        <v>0.06537358318062303</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9800969009585812</v>
+        <v>0.9820131290811398</v>
       </c>
       <c r="I135" t="n">
-        <v>0.007814642124440973</v>
+        <v>0.009095973065510306</v>
       </c>
     </row>
     <row r="136">
@@ -4377,22 +4377,22 @@
         <v>40</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3500158739710006</v>
+        <v>0.2732364922162123</v>
       </c>
       <c r="E136" t="n">
-        <v>0.09081492491870373</v>
+        <v>0.01306944124802887</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2693241699515888</v>
+        <v>0.1973729917128962</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0882264952547511</v>
+        <v>0.011337510324102</v>
       </c>
       <c r="H136" t="n">
-        <v>0.9764182376525614</v>
+        <v>0.9873903597607866</v>
       </c>
       <c r="I136" t="n">
-        <v>0.01691092889356162</v>
+        <v>0.001119340950612827</v>
       </c>
     </row>
     <row r="137">
@@ -4406,22 +4406,22 @@
         <v>45</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3655647325779607</v>
+        <v>0.3817394744637543</v>
       </c>
       <c r="E137" t="n">
-        <v>0.07262007524885937</v>
+        <v>0.0863183409200718</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2938526996079635</v>
+        <v>0.2911318572348072</v>
       </c>
       <c r="G137" t="n">
-        <v>0.07219574072801783</v>
+        <v>0.0901539598740628</v>
       </c>
       <c r="H137" t="n">
-        <v>0.9769714083626395</v>
+        <v>0.9742854591617777</v>
       </c>
       <c r="I137" t="n">
-        <v>0.00750193348704699</v>
+        <v>0.01265679913040965</v>
       </c>
     </row>
     <row r="138">
@@ -4435,22 +4435,22 @@
         <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3324287901601564</v>
+        <v>0.3039621229430499</v>
       </c>
       <c r="E138" t="n">
-        <v>0.06898775124091633</v>
+        <v>0.06875878842573199</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2635546966067595</v>
+        <v>0.2389130949913358</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08306128280792567</v>
+        <v>0.07340663315363181</v>
       </c>
       <c r="H138" t="n">
-        <v>0.9810726223332049</v>
+        <v>0.9824414052034689</v>
       </c>
       <c r="I138" t="n">
-        <v>0.006578594292450619</v>
+        <v>0.01190316915224168</v>
       </c>
     </row>
     <row r="139">
@@ -4464,22 +4464,22 @@
         <v>55</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2798315634693582</v>
+        <v>0.3098949610942018</v>
       </c>
       <c r="E139" t="n">
-        <v>0.04468470470061696</v>
+        <v>0.04416401530258009</v>
       </c>
       <c r="F139" t="n">
-        <v>0.214063457592711</v>
+        <v>0.2373466337807219</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05459501565252131</v>
+        <v>0.03674002976033902</v>
       </c>
       <c r="H139" t="n">
-        <v>0.9867354031517672</v>
+        <v>0.9838526110367175</v>
       </c>
       <c r="I139" t="n">
-        <v>0.003348458173133156</v>
+        <v>0.00315762218700549</v>
       </c>
     </row>
     <row r="140">
@@ -4493,22 +4493,22 @@
         <v>60</v>
       </c>
       <c r="D140" t="n">
-        <v>0.328095176146334</v>
+        <v>0.3294573105049273</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05473282561331996</v>
+        <v>0.1194336540324455</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2461916343713337</v>
+        <v>0.2683658022013232</v>
       </c>
       <c r="G140" t="n">
-        <v>0.07207390013974936</v>
+        <v>0.1229733829354892</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9816157315360645</v>
+        <v>0.980341947901229</v>
       </c>
       <c r="I140" t="n">
-        <v>0.005470397756283342</v>
+        <v>0.01323559258188084</v>
       </c>
     </row>
     <row r="141">
@@ -4522,22 +4522,22 @@
         <v>65</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3698997318131675</v>
+        <v>0.2918885826555671</v>
       </c>
       <c r="E141" t="n">
-        <v>0.05683424679981624</v>
+        <v>0.03787306197915784</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3183803089750604</v>
+        <v>0.2197287560049153</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0616304360819814</v>
+        <v>0.04631512885548194</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9766000583735088</v>
+        <v>0.985299616409605</v>
       </c>
       <c r="I141" t="n">
-        <v>0.006291205017439389</v>
+        <v>0.003855662985304599</v>
       </c>
     </row>
     <row r="142">
@@ -4551,22 +4551,22 @@
         <v>70</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2679863252748867</v>
+        <v>0.3085961881182039</v>
       </c>
       <c r="E142" t="n">
-        <v>0.05775506072805926</v>
+        <v>0.1340584664231712</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2031055452399101</v>
+        <v>0.2230305456350195</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06069217832912103</v>
+        <v>0.1097038361337236</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9876617358565054</v>
+        <v>0.9818597316527203</v>
       </c>
       <c r="I142" t="n">
-        <v>0.004787021397796025</v>
+        <v>0.01616544488483831</v>
       </c>
     </row>
     <row r="143">
@@ -4580,22 +4580,22 @@
         <v>75</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2894098280848824</v>
+        <v>0.2710342899104861</v>
       </c>
       <c r="E143" t="n">
-        <v>0.03047029812361599</v>
+        <v>0.0248996580095075</v>
       </c>
       <c r="F143" t="n">
-        <v>0.2150354943570957</v>
+        <v>0.2032846921579024</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03526037035211937</v>
+        <v>0.03107588837887178</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9852813746278649</v>
+        <v>0.9873686784245127</v>
       </c>
       <c r="I143" t="n">
-        <v>0.004662088741780326</v>
+        <v>0.003131119450289245</v>
       </c>
     </row>
     <row r="144">
@@ -4609,22 +4609,22 @@
         <v>80</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2984189791894748</v>
+        <v>0.3395520144468023</v>
       </c>
       <c r="E144" t="n">
-        <v>0.06685411337953452</v>
+        <v>0.08978338499958402</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2144338836545005</v>
+        <v>0.2831940293099245</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0525885251871302</v>
+        <v>0.101857123267535</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9847445831102636</v>
+        <v>0.9798971086208512</v>
       </c>
       <c r="I144" t="n">
-        <v>0.005703122515912671</v>
+        <v>0.009827386127272046</v>
       </c>
     </row>
     <row r="145">
@@ -4638,22 +4638,22 @@
         <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3254826987483824</v>
+        <v>0.3973812891885267</v>
       </c>
       <c r="E145" t="n">
-        <v>0.06987757232055948</v>
+        <v>0.09413510495608424</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2358244491300136</v>
+        <v>0.2965474557920517</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06028899072126798</v>
+        <v>0.07032091052332851</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9816079674298029</v>
+        <v>0.9725849116276717</v>
       </c>
       <c r="I145" t="n">
-        <v>0.007502455756949328</v>
+        <v>0.01090281751181167</v>
       </c>
     </row>
     <row r="146">
@@ -4667,22 +4667,22 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2734107692487814</v>
+        <v>0.2972416836598042</v>
       </c>
       <c r="E146" t="n">
-        <v>0.04786171036190711</v>
+        <v>0.03940774165343881</v>
       </c>
       <c r="F146" t="n">
-        <v>0.2020041674126273</v>
+        <v>0.2368890256544</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0460205868067181</v>
+        <v>0.04624752234534219</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9873870793669415</v>
+        <v>0.9852030280387257</v>
       </c>
       <c r="I146" t="n">
-        <v>0.003290819821313128</v>
+        <v>0.00227209063892712</v>
       </c>
     </row>
     <row r="147">
@@ -4696,22 +4696,22 @@
         <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3012342991128088</v>
+        <v>0.3323003667749678</v>
       </c>
       <c r="E147" t="n">
-        <v>0.04792915997551592</v>
+        <v>0.03216940383670323</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2265167110924202</v>
+        <v>0.2561198587103079</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04236920641536811</v>
+        <v>0.04343448043828566</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9847829053537517</v>
+        <v>0.98076518393142</v>
       </c>
       <c r="I147" t="n">
-        <v>0.003154092666303298</v>
+        <v>0.005650832816176868</v>
       </c>
     </row>
     <row r="148">
@@ -4725,22 +4725,22 @@
         <v>35</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3385706770389012</v>
+        <v>0.3307379507669898</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0826878900248938</v>
+        <v>0.1142116514592593</v>
       </c>
       <c r="F148" t="n">
-        <v>0.2654577193822069</v>
+        <v>0.2620017326110121</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07371928647630631</v>
+        <v>0.1239372461002814</v>
       </c>
       <c r="H148" t="n">
-        <v>0.980145894742687</v>
+        <v>0.9802364779344769</v>
       </c>
       <c r="I148" t="n">
-        <v>0.008119018160005964</v>
+        <v>0.01300175367118631</v>
       </c>
     </row>
     <row r="149">
@@ -4754,22 +4754,22 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3419243024899789</v>
+        <v>0.2740381672123172</v>
       </c>
       <c r="E149" t="n">
-        <v>0.09174920630360645</v>
+        <v>0.0442761278869685</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2723398531730686</v>
+        <v>0.2071982617336913</v>
       </c>
       <c r="G149" t="n">
-        <v>0.08236892371885363</v>
+        <v>0.05711542976735068</v>
       </c>
       <c r="H149" t="n">
-        <v>0.9789279916297206</v>
+        <v>0.9872961889994709</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0110277646044867</v>
+        <v>0.003213398736682209</v>
       </c>
     </row>
     <row r="150">
@@ -4783,22 +4783,22 @@
         <v>45</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3811360183396476</v>
+        <v>0.3078828021108398</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1092536872342254</v>
+        <v>0.06630017365223528</v>
       </c>
       <c r="F150" t="n">
-        <v>0.30616912365834</v>
+        <v>0.2316683062222262</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1086195803221461</v>
+        <v>0.08238042043249581</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9720072559221263</v>
+        <v>0.9827086345866942</v>
       </c>
       <c r="I150" t="n">
-        <v>0.01856653303795367</v>
+        <v>0.009050314200297083</v>
       </c>
     </row>
     <row r="151">
@@ -4812,22 +4812,22 @@
         <v>50</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2681478084366619</v>
+        <v>0.2707454278384405</v>
       </c>
       <c r="E151" t="n">
-        <v>0.02352596176633198</v>
+        <v>0.05281039472614909</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1972657410947463</v>
+        <v>0.2095662612511313</v>
       </c>
       <c r="G151" t="n">
-        <v>0.02197470422824076</v>
+        <v>0.0605062921897906</v>
       </c>
       <c r="H151" t="n">
-        <v>0.98752803234563</v>
+        <v>0.9875598800886302</v>
       </c>
       <c r="I151" t="n">
-        <v>0.003648356823716795</v>
+        <v>0.003818012828418565</v>
       </c>
     </row>
     <row r="152">
@@ -4841,22 +4841,22 @@
         <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>0.329331491155229</v>
+        <v>0.3581039118485587</v>
       </c>
       <c r="E152" t="n">
-        <v>0.06090384384129553</v>
+        <v>0.1042739955663768</v>
       </c>
       <c r="F152" t="n">
-        <v>0.2537537205521471</v>
+        <v>0.2981719618528333</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06420905458941881</v>
+        <v>0.1045059126837304</v>
       </c>
       <c r="H152" t="n">
-        <v>0.9803253953909163</v>
+        <v>0.9773712423173773</v>
       </c>
       <c r="I152" t="n">
-        <v>0.009557214511566324</v>
+        <v>0.01182663961536399</v>
       </c>
     </row>
     <row r="153">
@@ -4870,22 +4870,22 @@
         <v>60</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2722293170191871</v>
+        <v>0.3168351498373315</v>
       </c>
       <c r="E153" t="n">
-        <v>0.02891462317681799</v>
+        <v>0.0710444367948736</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2048104772886001</v>
+        <v>0.252700514667296</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0323409724178522</v>
+        <v>0.08222731601640922</v>
       </c>
       <c r="H153" t="n">
-        <v>0.9872139181225904</v>
+        <v>0.9828508350471449</v>
       </c>
       <c r="I153" t="n">
-        <v>0.003252415757746132</v>
+        <v>0.006344403910283744</v>
       </c>
     </row>
     <row r="154">
@@ -4899,22 +4899,22 @@
         <v>65</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3483377563194642</v>
+        <v>0.291732853916797</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1147162082265774</v>
+        <v>0.0473961399481954</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2657134805400402</v>
+        <v>0.2284187900341591</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09704385697497878</v>
+        <v>0.04607256185450508</v>
       </c>
       <c r="H154" t="n">
-        <v>0.9772814271091852</v>
+        <v>0.9856537609380649</v>
       </c>
       <c r="I154" t="n">
-        <v>0.01578356554283981</v>
+        <v>0.003428271015960139</v>
       </c>
     </row>
     <row r="155">
@@ -4928,22 +4928,22 @@
         <v>70</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3185353525409657</v>
+        <v>0.2771357759294489</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0553121442224522</v>
+        <v>0.04039202767464451</v>
       </c>
       <c r="F155" t="n">
-        <v>0.2438453093460615</v>
+        <v>0.1965764959681608</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05431120088089569</v>
+        <v>0.02017212814786078</v>
       </c>
       <c r="H155" t="n">
-        <v>0.9817059624503688</v>
+        <v>0.9869946755072496</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0090088494788727</v>
+        <v>0.003127936825505316</v>
       </c>
     </row>
     <row r="156">
@@ -4957,22 +4957,22 @@
         <v>75</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3567258791233538</v>
+        <v>0.2915463726264005</v>
       </c>
       <c r="E156" t="n">
-        <v>0.04699813495143548</v>
+        <v>0.0290362484436708</v>
       </c>
       <c r="F156" t="n">
-        <v>0.2825123380872383</v>
+        <v>0.2083474984249605</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04897361440704289</v>
+        <v>0.02385603136264667</v>
       </c>
       <c r="H156" t="n">
-        <v>0.9775077833695253</v>
+        <v>0.9855234132763714</v>
       </c>
       <c r="I156" t="n">
-        <v>0.007684225715035005</v>
+        <v>0.003154488557203907</v>
       </c>
     </row>
     <row r="157">
@@ -4986,22 +4986,22 @@
         <v>80</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3285860400869318</v>
+        <v>0.3196976507364543</v>
       </c>
       <c r="E157" t="n">
-        <v>0.05711470157201008</v>
+        <v>0.05985565313776395</v>
       </c>
       <c r="F157" t="n">
-        <v>0.2498198091030019</v>
+        <v>0.2457393853309087</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0610122828128138</v>
+        <v>0.05943201124239033</v>
       </c>
       <c r="H157" t="n">
-        <v>0.9808861055941362</v>
+        <v>0.9823973504938224</v>
       </c>
       <c r="I157" t="n">
-        <v>0.008170822634033069</v>
+        <v>0.006274529573171334</v>
       </c>
     </row>
     <row r="158">
@@ -5015,22 +5015,22 @@
         <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3066381441956709</v>
+        <v>0.3548516527993774</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0626344454395306</v>
+        <v>0.04483028949880885</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2325887305011971</v>
+        <v>0.2788889059254546</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07140931745232394</v>
+        <v>0.04665334462749612</v>
       </c>
       <c r="H158" t="n">
-        <v>0.9835756470619665</v>
+        <v>0.9783178395491561</v>
       </c>
       <c r="I158" t="n">
-        <v>0.006338683993978791</v>
+        <v>0.006101735230811415</v>
       </c>
     </row>
     <row r="159">
@@ -5044,22 +5044,22 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2933600009746338</v>
+        <v>0.3194109190314821</v>
       </c>
       <c r="E159" t="n">
-        <v>0.06326180102717013</v>
+        <v>0.02532441840604175</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2252185784591534</v>
+        <v>0.246353523794476</v>
       </c>
       <c r="G159" t="n">
-        <v>0.072272132749019</v>
+        <v>0.02098525631577165</v>
       </c>
       <c r="H159" t="n">
-        <v>0.9847303703436265</v>
+        <v>0.9824506735938522</v>
       </c>
       <c r="I159" t="n">
-        <v>0.007589322789807758</v>
+        <v>0.004009143917871391</v>
       </c>
     </row>
     <row r="160">
@@ -5073,22 +5073,22 @@
         <v>30</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2739861408537655</v>
+        <v>0.26290490163532</v>
       </c>
       <c r="E160" t="n">
-        <v>0.02985356116862821</v>
+        <v>0.04137162935909448</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1958550179808211</v>
+        <v>0.1960216501794518</v>
       </c>
       <c r="G160" t="n">
-        <v>0.02162435923109118</v>
+        <v>0.04376478553586375</v>
       </c>
       <c r="H160" t="n">
-        <v>0.987300642651147</v>
+        <v>0.9881425238816084</v>
       </c>
       <c r="I160" t="n">
-        <v>0.002163903876044748</v>
+        <v>0.00344032600448434</v>
       </c>
     </row>
     <row r="161">
@@ -5102,22 +5102,22 @@
         <v>35</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2703744689653821</v>
+        <v>0.3258956514790567</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02203170941127893</v>
+        <v>0.03431647338306944</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2008060516458748</v>
+        <v>0.2509711458461638</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02951461015166019</v>
+        <v>0.04165374330678209</v>
       </c>
       <c r="H161" t="n">
-        <v>0.9873928413550381</v>
+        <v>0.9818399488639399</v>
       </c>
       <c r="I161" t="n">
-        <v>0.003338973487550089</v>
+        <v>0.004154833918880864</v>
       </c>
     </row>
     <row r="162">
@@ -5131,22 +5131,22 @@
         <v>40</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3067335988005196</v>
+        <v>0.2704880675676417</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0768019512056035</v>
+        <v>0.04479560180509427</v>
       </c>
       <c r="F162" t="n">
-        <v>0.2270081311055779</v>
+        <v>0.1866085465156311</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0715122229362225</v>
+        <v>0.03790795303089677</v>
       </c>
       <c r="H162" t="n">
-        <v>0.9834625095261128</v>
+        <v>0.9873402137099724</v>
       </c>
       <c r="I162" t="n">
-        <v>0.007757829237635335</v>
+        <v>0.004529076568641849</v>
       </c>
     </row>
     <row r="163">
@@ -5160,22 +5160,22 @@
         <v>45</v>
       </c>
       <c r="D163" t="n">
-        <v>0.278942480915996</v>
+        <v>0.3091676072244903</v>
       </c>
       <c r="E163" t="n">
-        <v>0.02833590146875954</v>
+        <v>0.05467168578976898</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1974351787901699</v>
+        <v>0.2364799555317278</v>
       </c>
       <c r="G163" t="n">
-        <v>0.02631300957678899</v>
+        <v>0.06581834711720003</v>
       </c>
       <c r="H163" t="n">
-        <v>0.9863350459292656</v>
+        <v>0.9831868068540535</v>
       </c>
       <c r="I163" t="n">
-        <v>0.004765046609265539</v>
+        <v>0.006093311827065449</v>
       </c>
     </row>
     <row r="164">
@@ -5189,22 +5189,22 @@
         <v>50</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2554847341286652</v>
+        <v>0.3057850326168992</v>
       </c>
       <c r="E164" t="n">
-        <v>0.03197136068839632</v>
+        <v>0.04638543458887439</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1737598670767431</v>
+        <v>0.2286188828760179</v>
       </c>
       <c r="G164" t="n">
-        <v>0.02712059105680521</v>
+        <v>0.0420056993062979</v>
       </c>
       <c r="H164" t="n">
-        <v>0.9890422855905368</v>
+        <v>0.9839154474609376</v>
       </c>
       <c r="I164" t="n">
-        <v>0.001761130068671167</v>
+        <v>0.004712088935320009</v>
       </c>
     </row>
     <row r="165">
@@ -5218,22 +5218,22 @@
         <v>55</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2664275538945384</v>
+        <v>0.3312965649035378</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03440659240270818</v>
+        <v>0.0901174822573227</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1983245400346946</v>
+        <v>0.2587042498203201</v>
       </c>
       <c r="G165" t="n">
-        <v>0.03115585074270028</v>
+        <v>0.09077347858543634</v>
       </c>
       <c r="H165" t="n">
-        <v>0.9879245713732665</v>
+        <v>0.9802968552274386</v>
       </c>
       <c r="I165" t="n">
-        <v>0.002707639698343425</v>
+        <v>0.009966114681865547</v>
       </c>
     </row>
     <row r="166">
@@ -5247,22 +5247,22 @@
         <v>60</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3164101647684258</v>
+        <v>0.2820805910821219</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0635177885374664</v>
+        <v>0.02040197789114357</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2368244013543106</v>
+        <v>0.2116352416375142</v>
       </c>
       <c r="G166" t="n">
-        <v>0.04439469756581039</v>
+        <v>0.02814384925107841</v>
       </c>
       <c r="H166" t="n">
-        <v>0.9824695400177191</v>
+        <v>0.9865353020920471</v>
       </c>
       <c r="I166" t="n">
-        <v>0.006970797239297793</v>
+        <v>0.001759869639785356</v>
       </c>
     </row>
     <row r="167">
@@ -5276,22 +5276,22 @@
         <v>65</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2892330796572214</v>
+        <v>0.2585610595071008</v>
       </c>
       <c r="E167" t="n">
-        <v>0.03358381642469675</v>
+        <v>0.04514506986001352</v>
       </c>
       <c r="F167" t="n">
-        <v>0.227055896749321</v>
+        <v>0.1818365088043913</v>
       </c>
       <c r="G167" t="n">
-        <v>0.03843201268301958</v>
+        <v>0.03124688807535984</v>
       </c>
       <c r="H167" t="n">
-        <v>0.9858976038424652</v>
+        <v>0.9887159268172899</v>
       </c>
       <c r="I167" t="n">
-        <v>0.002258920651669492</v>
+        <v>0.002868645836563892</v>
       </c>
     </row>
     <row r="168">
@@ -5305,22 +5305,22 @@
         <v>70</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3607296723420548</v>
+        <v>0.284185019725226</v>
       </c>
       <c r="E168" t="n">
-        <v>0.07159853120491545</v>
+        <v>0.03399048349607749</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2716101584901987</v>
+        <v>0.2129130197298504</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06695475121946334</v>
+        <v>0.03318274655799876</v>
       </c>
       <c r="H168" t="n">
-        <v>0.9773104586760505</v>
+        <v>0.9862814474010431</v>
       </c>
       <c r="I168" t="n">
-        <v>0.007604722912004142</v>
+        <v>0.00297140835799567</v>
       </c>
     </row>
     <row r="169">
@@ -5334,22 +5334,22 @@
         <v>75</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2824903778102975</v>
+        <v>0.3411808988029618</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04387266290937267</v>
+        <v>0.03760222720117572</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2051168189347222</v>
+        <v>0.2698397113039789</v>
       </c>
       <c r="G169" t="n">
-        <v>0.04331125709428218</v>
+        <v>0.0489280536890854</v>
       </c>
       <c r="H169" t="n">
-        <v>0.9866266670868</v>
+        <v>0.9801872475046178</v>
       </c>
       <c r="I169" t="n">
-        <v>0.002624507634081102</v>
+        <v>0.004062340342679382</v>
       </c>
     </row>
     <row r="170">
@@ -5363,22 +5363,22 @@
         <v>80</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3005116894976894</v>
+        <v>0.27920696039961</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0236970157468939</v>
+        <v>0.04899963712069791</v>
       </c>
       <c r="F170" t="n">
-        <v>0.2320863889180074</v>
+        <v>0.2070873100319247</v>
       </c>
       <c r="G170" t="n">
-        <v>0.04216694926067255</v>
+        <v>0.0493790400725409</v>
       </c>
       <c r="H170" t="n">
-        <v>0.9842030302486273</v>
+        <v>0.9867073010629916</v>
       </c>
       <c r="I170" t="n">
-        <v>0.004748365840659528</v>
+        <v>0.003688601960397123</v>
       </c>
     </row>
   </sheetData>
